--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>541.3814638046207</v>
+        <v>668.5307550926639</v>
       </c>
       <c r="AB2" t="n">
-        <v>740.7420028420132</v>
+        <v>914.713272613152</v>
       </c>
       <c r="AC2" t="n">
-        <v>670.0466257287012</v>
+        <v>827.4143216830932</v>
       </c>
       <c r="AD2" t="n">
-        <v>541381.4638046207</v>
+        <v>668530.7550926639</v>
       </c>
       <c r="AE2" t="n">
-        <v>740742.0028420133</v>
+        <v>914713.2726131519</v>
       </c>
       <c r="AF2" t="n">
         <v>6.241271207268431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.14973958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>670046.6257287012</v>
+        <v>827414.3216830932</v>
       </c>
     </row>
     <row r="3">
@@ -4733,28 +4733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.3430593205424</v>
+        <v>381.5839096756247</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.0473563136513</v>
+        <v>522.0999395121809</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.4358191496988</v>
+        <v>472.2714540570049</v>
       </c>
       <c r="AD3" t="n">
-        <v>303343.0593205424</v>
+        <v>381583.9096756247</v>
       </c>
       <c r="AE3" t="n">
-        <v>415047.3563136513</v>
+        <v>522099.9395121809</v>
       </c>
       <c r="AF3" t="n">
         <v>9.565497275367792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>375435.8191496988</v>
+        <v>472271.4540570049</v>
       </c>
     </row>
     <row r="4">
@@ -4839,28 +4839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.1789951804747</v>
+        <v>336.4529999244807</v>
       </c>
       <c r="AB4" t="n">
-        <v>353.2518912593243</v>
+        <v>460.3498377554475</v>
       </c>
       <c r="AC4" t="n">
-        <v>319.5380265496769</v>
+        <v>416.414695345122</v>
       </c>
       <c r="AD4" t="n">
-        <v>258178.9951804747</v>
+        <v>336452.9999244807</v>
       </c>
       <c r="AE4" t="n">
-        <v>353251.8912593243</v>
+        <v>460349.8377554475</v>
       </c>
       <c r="AF4" t="n">
         <v>1.080174582690986e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>319538.0265496769</v>
+        <v>416414.695345122</v>
       </c>
     </row>
     <row r="5">
@@ -4945,28 +4945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.5238720035814</v>
+        <v>306.0435208960229</v>
       </c>
       <c r="AB5" t="n">
-        <v>324.9906404888237</v>
+        <v>418.7422469771801</v>
       </c>
       <c r="AC5" t="n">
-        <v>293.9739898878954</v>
+        <v>378.778074634112</v>
       </c>
       <c r="AD5" t="n">
-        <v>237523.8720035814</v>
+        <v>306043.5208960228</v>
       </c>
       <c r="AE5" t="n">
-        <v>324990.6404888236</v>
+        <v>418742.2469771801</v>
       </c>
       <c r="AF5" t="n">
         <v>1.14449422261911e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.7109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>293973.9898878954</v>
+        <v>378778.0746341121</v>
       </c>
     </row>
     <row r="6">
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>232.4803842488758</v>
+        <v>300.8985479148319</v>
       </c>
       <c r="AB6" t="n">
-        <v>318.0899180398625</v>
+        <v>411.7026679641262</v>
       </c>
       <c r="AC6" t="n">
-        <v>287.7318627042363</v>
+        <v>372.4103431619528</v>
       </c>
       <c r="AD6" t="n">
-        <v>232480.3842488758</v>
+        <v>300898.5479148319</v>
       </c>
       <c r="AE6" t="n">
-        <v>318089.9180398625</v>
+        <v>411702.6679641262</v>
       </c>
       <c r="AF6" t="n">
         <v>1.177811217514413e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.32682291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>287731.8627042363</v>
+        <v>372410.3431619528</v>
       </c>
     </row>
     <row r="7">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>227.9008107576484</v>
+        <v>286.5987839908177</v>
       </c>
       <c r="AB7" t="n">
-        <v>311.823943552645</v>
+        <v>392.1371001022296</v>
       </c>
       <c r="AC7" t="n">
-        <v>282.0639040277263</v>
+        <v>354.7120856363487</v>
       </c>
       <c r="AD7" t="n">
-        <v>227900.8107576484</v>
+        <v>286598.7839908177</v>
       </c>
       <c r="AE7" t="n">
-        <v>311823.943552645</v>
+        <v>392137.1001022296</v>
       </c>
       <c r="AF7" t="n">
         <v>1.207174531394644e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.00130208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>282063.9040277263</v>
+        <v>354712.0856363487</v>
       </c>
     </row>
     <row r="8">
@@ -5263,28 +5263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>214.9154747398058</v>
+        <v>283.400958213466</v>
       </c>
       <c r="AB8" t="n">
-        <v>294.0568339404477</v>
+        <v>387.7616937955406</v>
       </c>
       <c r="AC8" t="n">
-        <v>265.9924624206167</v>
+        <v>350.7542619666488</v>
       </c>
       <c r="AD8" t="n">
-        <v>214915.4747398058</v>
+        <v>283400.958213466</v>
       </c>
       <c r="AE8" t="n">
-        <v>294056.8339404478</v>
+        <v>387761.6937955406</v>
       </c>
       <c r="AF8" t="n">
         <v>1.226316133382249e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.79947916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>265992.4624206166</v>
+        <v>350754.2619666487</v>
       </c>
     </row>
     <row r="9">
@@ -5369,28 +5369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>211.3401540674252</v>
+        <v>279.8256375410854</v>
       </c>
       <c r="AB9" t="n">
-        <v>289.1649224644832</v>
+        <v>382.8697823195735</v>
       </c>
       <c r="AC9" t="n">
-        <v>261.5674281100756</v>
+        <v>346.329227656107</v>
       </c>
       <c r="AD9" t="n">
-        <v>211340.1540674252</v>
+        <v>279825.6375410854</v>
       </c>
       <c r="AE9" t="n">
-        <v>289164.9224644832</v>
+        <v>382869.7823195735</v>
       </c>
       <c r="AF9" t="n">
         <v>1.249387308573859e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.56510416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>261567.4281100756</v>
+        <v>346329.227656107</v>
       </c>
     </row>
     <row r="10">
@@ -5475,28 +5475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>210.0161714392664</v>
+        <v>268.6799792536547</v>
       </c>
       <c r="AB10" t="n">
-        <v>287.3533910226461</v>
+        <v>367.6198009389704</v>
       </c>
       <c r="AC10" t="n">
-        <v>259.9287866865466</v>
+        <v>332.5346830949854</v>
       </c>
       <c r="AD10" t="n">
-        <v>210016.1714392664</v>
+        <v>268679.9792536547</v>
       </c>
       <c r="AE10" t="n">
-        <v>287353.3910226461</v>
+        <v>367619.8009389704</v>
       </c>
       <c r="AF10" t="n">
         <v>1.255751770695682e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>259928.7866865466</v>
+        <v>332534.6830949854</v>
       </c>
     </row>
     <row r="11">
@@ -5581,28 +5581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>208.1799869850373</v>
+        <v>266.8437947994256</v>
       </c>
       <c r="AB11" t="n">
-        <v>284.8410424456302</v>
+        <v>365.1074523619533</v>
       </c>
       <c r="AC11" t="n">
-        <v>257.6562131316169</v>
+        <v>330.2621095400554</v>
       </c>
       <c r="AD11" t="n">
-        <v>208179.9869850373</v>
+        <v>266843.7947994256</v>
       </c>
       <c r="AE11" t="n">
-        <v>284841.0424456302</v>
+        <v>365107.4523619533</v>
       </c>
       <c r="AF11" t="n">
         <v>1.266045806021511e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>257656.2131316169</v>
+        <v>330262.1095400554</v>
       </c>
     </row>
     <row r="12">
@@ -5687,28 +5687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>206.6815291328388</v>
+        <v>265.345336947227</v>
       </c>
       <c r="AB12" t="n">
-        <v>282.7907863049584</v>
+        <v>363.0571962212804</v>
       </c>
       <c r="AC12" t="n">
-        <v>255.8016305594576</v>
+        <v>328.4075269678958</v>
       </c>
       <c r="AD12" t="n">
-        <v>206681.5291328388</v>
+        <v>265345.336947227</v>
       </c>
       <c r="AE12" t="n">
-        <v>282790.7863049584</v>
+        <v>363057.1962212804</v>
       </c>
       <c r="AF12" t="n">
         <v>1.271373632267431e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH12" t="n">
-        <v>255801.6305594576</v>
+        <v>328407.5269678958</v>
       </c>
     </row>
     <row r="13">
@@ -5793,28 +5793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>204.9265035614893</v>
+        <v>263.5903113758775</v>
       </c>
       <c r="AB13" t="n">
-        <v>280.3894828919754</v>
+        <v>360.6558928082962</v>
       </c>
       <c r="AC13" t="n">
-        <v>253.6295041739585</v>
+        <v>326.2354005823963</v>
       </c>
       <c r="AD13" t="n">
-        <v>204926.5035614893</v>
+        <v>263590.3113758775</v>
       </c>
       <c r="AE13" t="n">
-        <v>280389.4828919754</v>
+        <v>360655.8928082963</v>
       </c>
       <c r="AF13" t="n">
         <v>1.278991700564765e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>253629.5041739585</v>
+        <v>326235.4005823963</v>
       </c>
     </row>
     <row r="14">
@@ -5899,28 +5899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>203.099565689508</v>
+        <v>261.7633735038961</v>
       </c>
       <c r="AB14" t="n">
-        <v>277.8897858967213</v>
+        <v>358.1561958130408</v>
       </c>
       <c r="AC14" t="n">
-        <v>251.3683747515838</v>
+        <v>323.9742711600213</v>
       </c>
       <c r="AD14" t="n">
-        <v>203099.565689508</v>
+        <v>261763.3735038961</v>
       </c>
       <c r="AE14" t="n">
-        <v>277889.7858967213</v>
+        <v>358156.1958130408</v>
       </c>
       <c r="AF14" t="n">
         <v>1.286585661051032e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.20052083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>251368.3747515838</v>
+        <v>323974.2711600213</v>
       </c>
     </row>
     <row r="15">
@@ -6005,28 +6005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>201.3468141556667</v>
+        <v>260.0106219700548</v>
       </c>
       <c r="AB15" t="n">
-        <v>275.4915939221806</v>
+        <v>355.7580038384988</v>
       </c>
       <c r="AC15" t="n">
-        <v>249.1990628532089</v>
+        <v>321.804959261646</v>
       </c>
       <c r="AD15" t="n">
-        <v>201346.8141556667</v>
+        <v>260010.6219700548</v>
       </c>
       <c r="AE15" t="n">
-        <v>275491.5939221806</v>
+        <v>355758.0038384988</v>
       </c>
       <c r="AF15" t="n">
         <v>1.292588506006842e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.14192708333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>249199.0628532089</v>
+        <v>321804.959261646</v>
       </c>
     </row>
     <row r="16">
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>201.0621266940985</v>
+        <v>259.7259345084866</v>
       </c>
       <c r="AB16" t="n">
-        <v>275.1020719777388</v>
+        <v>355.3684818940568</v>
       </c>
       <c r="AC16" t="n">
-        <v>248.8467163364471</v>
+        <v>321.4526127448841</v>
       </c>
       <c r="AD16" t="n">
-        <v>201062.1266940985</v>
+        <v>259725.9345084866</v>
       </c>
       <c r="AE16" t="n">
-        <v>275102.0719777388</v>
+        <v>355368.4818940568</v>
       </c>
       <c r="AF16" t="n">
         <v>1.290442910821834e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>248846.716336447</v>
+        <v>321452.6127448841</v>
       </c>
     </row>
     <row r="17">
@@ -6217,28 +6217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>200.1016633412454</v>
+        <v>258.7654711556335</v>
       </c>
       <c r="AB17" t="n">
-        <v>273.7879236457132</v>
+        <v>354.0543335620306</v>
       </c>
       <c r="AC17" t="n">
-        <v>247.6579884768108</v>
+        <v>320.2638848852477</v>
       </c>
       <c r="AD17" t="n">
-        <v>200101.6633412454</v>
+        <v>258765.4711556335</v>
       </c>
       <c r="AE17" t="n">
-        <v>273787.9236457133</v>
+        <v>354054.3335620306</v>
       </c>
       <c r="AF17" t="n">
         <v>1.296614510455117e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.10286458333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>247657.9884768108</v>
+        <v>320263.8848852477</v>
       </c>
     </row>
   </sheetData>
@@ -6514,28 +6514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.0653896598732</v>
+        <v>517.4499450845772</v>
       </c>
       <c r="AB2" t="n">
-        <v>562.4378010577325</v>
+        <v>707.9978431451573</v>
       </c>
       <c r="AC2" t="n">
-        <v>508.7595267111933</v>
+        <v>640.4275226765966</v>
       </c>
       <c r="AD2" t="n">
-        <v>411065.3896598732</v>
+        <v>517449.9450845772</v>
       </c>
       <c r="AE2" t="n">
-        <v>562437.8010577324</v>
+        <v>707997.8431451573</v>
       </c>
       <c r="AF2" t="n">
         <v>8.055166978175976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.32161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>508759.5267111933</v>
+        <v>640427.5226765967</v>
       </c>
     </row>
     <row r="3">
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.8348173104438</v>
+        <v>331.565506972277</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.9904366148104</v>
+        <v>453.6625542772712</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.538015997552</v>
+        <v>410.3656368164416</v>
       </c>
       <c r="AD3" t="n">
-        <v>263834.8173104438</v>
+        <v>331565.506972277</v>
       </c>
       <c r="AE3" t="n">
-        <v>360990.4366148104</v>
+        <v>453662.5542772711</v>
       </c>
       <c r="AF3" t="n">
         <v>1.132054707520058e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.16927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>326538.015997552</v>
+        <v>410365.6368164415</v>
       </c>
     </row>
     <row r="4">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.6185925465913</v>
+        <v>294.3824365973509</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.0695560288023</v>
+        <v>402.7870369890061</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.4769527868603</v>
+        <v>364.3456074939314</v>
       </c>
       <c r="AD4" t="n">
-        <v>226618.5925465913</v>
+        <v>294382.4365973509</v>
       </c>
       <c r="AE4" t="n">
-        <v>310069.5560288023</v>
+        <v>402787.0369890061</v>
       </c>
       <c r="AF4" t="n">
         <v>1.250810190166514e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.73046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>280476.9527868603</v>
+        <v>364345.6074939314</v>
       </c>
     </row>
     <row r="5">
@@ -6832,28 +6832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.4345999844757</v>
+        <v>275.4847404962034</v>
       </c>
       <c r="AB5" t="n">
-        <v>297.5036122361656</v>
+        <v>376.9303754759042</v>
       </c>
       <c r="AC5" t="n">
-        <v>269.1102850333759</v>
+        <v>340.9566694655877</v>
       </c>
       <c r="AD5" t="n">
-        <v>217434.5999844756</v>
+        <v>275484.7404962034</v>
       </c>
       <c r="AE5" t="n">
-        <v>297503.6122361656</v>
+        <v>376930.3754759042</v>
       </c>
       <c r="AF5" t="n">
         <v>1.321003068736532e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.00130208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>269110.2850333759</v>
+        <v>340956.6694655877</v>
       </c>
     </row>
     <row r="6">
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>205.0227327070234</v>
+        <v>272.7524113390019</v>
       </c>
       <c r="AB6" t="n">
-        <v>280.5211478542254</v>
+        <v>373.1918821811661</v>
       </c>
       <c r="AC6" t="n">
-        <v>253.7486032170042</v>
+        <v>337.5749727238911</v>
       </c>
       <c r="AD6" t="n">
-        <v>205022.7327070234</v>
+        <v>272752.4113390018</v>
       </c>
       <c r="AE6" t="n">
-        <v>280521.1478542254</v>
+        <v>373191.8821811661</v>
       </c>
       <c r="AF6" t="n">
         <v>1.341340802437202e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.80598958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>253748.6032170042</v>
+        <v>337574.9727238911</v>
       </c>
     </row>
     <row r="7">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>200.8679605890977</v>
+        <v>258.9854209085296</v>
       </c>
       <c r="AB7" t="n">
-        <v>274.8364053468728</v>
+        <v>354.3552785174413</v>
       </c>
       <c r="AC7" t="n">
-        <v>248.6064045559654</v>
+        <v>320.5361080764929</v>
       </c>
       <c r="AD7" t="n">
-        <v>200867.9605890977</v>
+        <v>258985.4209085297</v>
       </c>
       <c r="AE7" t="n">
-        <v>274836.4053468728</v>
+        <v>354355.2785174413</v>
       </c>
       <c r="AF7" t="n">
         <v>1.372625565302306e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.51302083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>248606.4045559654</v>
+        <v>320536.1080764929</v>
       </c>
     </row>
     <row r="8">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>197.9626612819543</v>
+        <v>255.9786363748977</v>
       </c>
       <c r="AB8" t="n">
-        <v>270.8612466620817</v>
+        <v>350.2412632683889</v>
       </c>
       <c r="AC8" t="n">
-        <v>245.0106294368792</v>
+        <v>316.8147286688588</v>
       </c>
       <c r="AD8" t="n">
-        <v>197962.6612819543</v>
+        <v>255978.6363748977</v>
       </c>
       <c r="AE8" t="n">
-        <v>270861.2466620817</v>
+        <v>350241.2632683889</v>
       </c>
       <c r="AF8" t="n">
         <v>1.393016055770033e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>245010.6294368792</v>
+        <v>316814.7286688588</v>
       </c>
     </row>
     <row r="9">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>196.216870679332</v>
+        <v>254.2328457722755</v>
       </c>
       <c r="AB9" t="n">
-        <v>268.4725789407295</v>
+        <v>347.8525955470367</v>
       </c>
       <c r="AC9" t="n">
-        <v>242.8499328103359</v>
+        <v>314.6540320423155</v>
       </c>
       <c r="AD9" t="n">
-        <v>196216.870679332</v>
+        <v>254232.8457722755</v>
       </c>
       <c r="AE9" t="n">
-        <v>268472.5789407295</v>
+        <v>347852.5955470367</v>
       </c>
       <c r="AF9" t="n">
         <v>1.401272489814534e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.25260416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>242849.9328103359</v>
+        <v>314654.0320423155</v>
       </c>
     </row>
     <row r="10">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>193.8567126808058</v>
+        <v>251.8726877737492</v>
       </c>
       <c r="AB10" t="n">
-        <v>265.2433066443252</v>
+        <v>344.6233232506324</v>
       </c>
       <c r="AC10" t="n">
-        <v>239.9288577295873</v>
+        <v>311.7329569615669</v>
       </c>
       <c r="AD10" t="n">
-        <v>193856.7126808058</v>
+        <v>251872.6877737492</v>
       </c>
       <c r="AE10" t="n">
-        <v>265243.3066443252</v>
+        <v>344623.3232506324</v>
       </c>
       <c r="AF10" t="n">
         <v>1.413960492291865e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH10" t="n">
-        <v>239928.8577295873</v>
+        <v>311732.9569615669</v>
       </c>
     </row>
     <row r="11">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>192.2882326171466</v>
+        <v>250.3042077100901</v>
       </c>
       <c r="AB11" t="n">
-        <v>263.097243024771</v>
+        <v>342.4772596310782</v>
       </c>
       <c r="AC11" t="n">
-        <v>237.9876114098635</v>
+        <v>309.7917106418431</v>
       </c>
       <c r="AD11" t="n">
-        <v>192288.2326171466</v>
+        <v>250304.2077100901</v>
       </c>
       <c r="AE11" t="n">
-        <v>263097.243024771</v>
+        <v>342477.2596310782</v>
       </c>
       <c r="AF11" t="n">
         <v>1.418392060724696e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH11" t="n">
-        <v>237987.6114098635</v>
+        <v>309791.710641843</v>
       </c>
     </row>
     <row r="12">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>190.9656602708909</v>
+        <v>248.9816353638344</v>
       </c>
       <c r="AB12" t="n">
-        <v>261.287641192851</v>
+        <v>340.6676577991582</v>
       </c>
       <c r="AC12" t="n">
-        <v>236.3507154369892</v>
+        <v>308.1548146689688</v>
       </c>
       <c r="AD12" t="n">
-        <v>190965.6602708909</v>
+        <v>248981.6353638344</v>
       </c>
       <c r="AE12" t="n">
-        <v>261287.641192851</v>
+        <v>340667.6577991582</v>
       </c>
       <c r="AF12" t="n">
         <v>1.421425574830503e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>236350.7154369892</v>
+        <v>308154.8146689688</v>
       </c>
     </row>
     <row r="13">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>190.5666658754755</v>
+        <v>248.5826409684189</v>
       </c>
       <c r="AB13" t="n">
-        <v>260.7417194586534</v>
+        <v>340.1217360649607</v>
       </c>
       <c r="AC13" t="n">
-        <v>235.8568957068973</v>
+        <v>307.6609949388769</v>
       </c>
       <c r="AD13" t="n">
-        <v>190566.6658754754</v>
+        <v>248582.6409684189</v>
       </c>
       <c r="AE13" t="n">
-        <v>260741.7194586534</v>
+        <v>340121.7360649607</v>
       </c>
       <c r="AF13" t="n">
         <v>1.429365468272658e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.01171875</v>
       </c>
       <c r="AH13" t="n">
-        <v>235856.8957068973</v>
+        <v>307660.9949388768</v>
       </c>
     </row>
   </sheetData>
@@ -7977,28 +7977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.6650593107041</v>
+        <v>291.1202770998689</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.7648897885446</v>
+        <v>398.3236064482313</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.2968020614618</v>
+        <v>360.3081604995041</v>
       </c>
       <c r="AD2" t="n">
-        <v>225665.0593107041</v>
+        <v>291120.2770998689</v>
       </c>
       <c r="AE2" t="n">
-        <v>308764.8897885446</v>
+        <v>398323.6064482313</v>
       </c>
       <c r="AF2" t="n">
         <v>1.591811226640944e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.05859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>279296.8020614618</v>
+        <v>360308.1604995041</v>
       </c>
     </row>
     <row r="3">
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.0252028248685</v>
+        <v>241.4794095841725</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.8454481887496</v>
+        <v>330.4027815125875</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.8594966423947</v>
+        <v>298.8696037683407</v>
       </c>
       <c r="AD3" t="n">
-        <v>176025.2028248685</v>
+        <v>241479.4095841724</v>
       </c>
       <c r="AE3" t="n">
-        <v>240845.4481887496</v>
+        <v>330402.7815125875</v>
       </c>
       <c r="AF3" t="n">
         <v>1.873620060630623e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.79296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>217859.4966423947</v>
+        <v>298869.6037683407</v>
       </c>
     </row>
     <row r="4">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.946508059489</v>
+        <v>225.0120786901429</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.1600657207896</v>
+        <v>307.8714528960215</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.098473483654</v>
+        <v>278.4886335320143</v>
       </c>
       <c r="AD4" t="n">
-        <v>168946.508059489</v>
+        <v>225012.078690143</v>
       </c>
       <c r="AE4" t="n">
-        <v>231160.0657207896</v>
+        <v>307871.4528960215</v>
       </c>
       <c r="AF4" t="n">
         <v>1.968722257938611e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.17447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>209098.473483654</v>
+        <v>278488.6335320143</v>
       </c>
     </row>
     <row r="5">
@@ -8295,28 +8295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>168.3299081872074</v>
+        <v>224.3954788178613</v>
       </c>
       <c r="AB5" t="n">
-        <v>230.3164065730678</v>
+        <v>307.0277937482997</v>
       </c>
       <c r="AC5" t="n">
-        <v>208.3353319809074</v>
+        <v>277.7254920292678</v>
       </c>
       <c r="AD5" t="n">
-        <v>168329.9081872074</v>
+        <v>224395.4788178613</v>
       </c>
       <c r="AE5" t="n">
-        <v>230316.4065730677</v>
+        <v>307027.7937482997</v>
       </c>
       <c r="AF5" t="n">
         <v>1.97800052109061e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>208335.3319809074</v>
+        <v>277725.4920292678</v>
       </c>
     </row>
   </sheetData>
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.119901014745</v>
+        <v>355.4288667522742</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.589965417359</v>
+        <v>486.3134559053956</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.3168178406999</v>
+        <v>439.9003822190061</v>
       </c>
       <c r="AD2" t="n">
-        <v>270119.9010147451</v>
+        <v>355428.8667522742</v>
       </c>
       <c r="AE2" t="n">
-        <v>369589.965417359</v>
+        <v>486313.4559053956</v>
       </c>
       <c r="AF2" t="n">
         <v>1.229956025528663e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>334316.8178406999</v>
+        <v>439900.3822190061</v>
       </c>
     </row>
     <row r="3">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.9905791127142</v>
+        <v>271.3685700120689</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.4771538879751</v>
+        <v>371.2984494268858</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.708807973147</v>
+        <v>335.8622465342298</v>
       </c>
       <c r="AD3" t="n">
-        <v>204990.5791127142</v>
+        <v>271368.5700120689</v>
       </c>
       <c r="AE3" t="n">
-        <v>280477.1538879751</v>
+        <v>371298.4494268858</v>
       </c>
       <c r="AF3" t="n">
         <v>1.532670283632853e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>253708.807973147</v>
+        <v>335862.2465342298</v>
       </c>
     </row>
     <row r="4">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.7836119714073</v>
+        <v>252.1274374519778</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.197334093665</v>
+        <v>344.9718829991472</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.9370972960388</v>
+        <v>312.0482506568902</v>
       </c>
       <c r="AD4" t="n">
-        <v>185783.6119714073</v>
+        <v>252127.4374519778</v>
       </c>
       <c r="AE4" t="n">
-        <v>254197.334093665</v>
+        <v>344971.8829991472</v>
       </c>
       <c r="AF4" t="n">
         <v>1.63932492797228e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.66276041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>229937.0972960388</v>
+        <v>312048.2506568902</v>
       </c>
     </row>
     <row r="5">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>181.0147900893395</v>
+        <v>237.8428910525076</v>
       </c>
       <c r="AB5" t="n">
-        <v>247.6724216090499</v>
+        <v>325.4271364256913</v>
       </c>
       <c r="AC5" t="n">
-        <v>224.034913301181</v>
+        <v>294.3688272651746</v>
       </c>
       <c r="AD5" t="n">
-        <v>181014.7900893395</v>
+        <v>237842.8910525076</v>
       </c>
       <c r="AE5" t="n">
-        <v>247672.4216090499</v>
+        <v>325427.1364256913</v>
       </c>
       <c r="AF5" t="n">
         <v>1.687024583557267e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.3046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>224034.913301181</v>
+        <v>294368.8272651745</v>
       </c>
     </row>
     <row r="6">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.9091460685885</v>
+        <v>233.2188061303783</v>
       </c>
       <c r="AB6" t="n">
-        <v>228.3724571627735</v>
+        <v>319.100259435008</v>
       </c>
       <c r="AC6" t="n">
-        <v>206.5769103739809</v>
+        <v>288.6457785346524</v>
       </c>
       <c r="AD6" t="n">
-        <v>166909.1460685885</v>
+        <v>233218.8061303782</v>
       </c>
       <c r="AE6" t="n">
-        <v>228372.4571627735</v>
+        <v>319100.2594350079</v>
       </c>
       <c r="AF6" t="n">
         <v>1.731312565915253e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>206576.9103739809</v>
+        <v>288645.7785346524</v>
       </c>
     </row>
     <row r="7">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>176.4327089149565</v>
+        <v>233.2608098781246</v>
       </c>
       <c r="AB7" t="n">
-        <v>241.4030159991077</v>
+        <v>319.1577308157491</v>
       </c>
       <c r="AC7" t="n">
-        <v>218.3638509634837</v>
+        <v>288.6977649274772</v>
       </c>
       <c r="AD7" t="n">
-        <v>176432.7089149565</v>
+        <v>233260.8098781246</v>
       </c>
       <c r="AE7" t="n">
-        <v>241403.0159991077</v>
+        <v>319157.7308157491</v>
       </c>
       <c r="AF7" t="n">
         <v>1.725254454577588e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH7" t="n">
-        <v>218363.8509634837</v>
+        <v>288697.7649274772</v>
       </c>
     </row>
   </sheetData>
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.2662504939617</v>
+        <v>259.2078651858197</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.4894572958468</v>
+        <v>354.6596365911785</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.2967792662928</v>
+        <v>320.8114186428419</v>
       </c>
       <c r="AD2" t="n">
-        <v>185266.2504939617</v>
+        <v>259207.8651858197</v>
       </c>
       <c r="AE2" t="n">
-        <v>253489.4572958468</v>
+        <v>354659.6365911785</v>
       </c>
       <c r="AF2" t="n">
         <v>1.973878092438956e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>229296.7792662928</v>
+        <v>320811.4186428419</v>
       </c>
     </row>
     <row r="3">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.7754356785048</v>
+        <v>228.4999725979634</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.0847763575179</v>
+        <v>312.6437432157182</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.6984398069797</v>
+        <v>282.8054631615522</v>
       </c>
       <c r="AD3" t="n">
-        <v>163775.4356785048</v>
+        <v>228499.9725979634</v>
       </c>
       <c r="AE3" t="n">
-        <v>224084.7763575178</v>
+        <v>312643.7432157182</v>
       </c>
       <c r="AF3" t="n">
         <v>2.184267089879039e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.57161458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>202698.4398069797</v>
+        <v>282805.4631615522</v>
       </c>
     </row>
     <row r="4">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.6276528323642</v>
+        <v>218.0677921717222</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.5143292308237</v>
+        <v>298.3699737212236</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.2778739499203</v>
+        <v>269.8939621942463</v>
       </c>
       <c r="AD4" t="n">
-        <v>162627.6528323643</v>
+        <v>218067.7921717222</v>
       </c>
       <c r="AE4" t="n">
-        <v>222514.3292308237</v>
+        <v>298369.9737212236</v>
       </c>
       <c r="AF4" t="n">
         <v>2.216991455886957e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.3828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>201277.8739499203</v>
+        <v>269893.9621942463</v>
       </c>
     </row>
   </sheetData>
@@ -9928,28 +9928,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.9554341579903</v>
+        <v>546.6863300373803</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.9664344788671</v>
+        <v>748.0003548558558</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.5156028374003</v>
+        <v>676.6122508135038</v>
       </c>
       <c r="AD2" t="n">
-        <v>439955.4341579903</v>
+        <v>546686.3300373803</v>
       </c>
       <c r="AE2" t="n">
-        <v>601966.4344788671</v>
+        <v>748000.3548558558</v>
       </c>
       <c r="AF2" t="n">
         <v>7.563779192381684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.15494791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>544515.6028374003</v>
+        <v>676612.2508135037</v>
       </c>
     </row>
     <row r="3">
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.1196529495621</v>
+        <v>348.689597313691</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.9578701205182</v>
+        <v>477.0924901439419</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.5541716388559</v>
+        <v>431.5594524881187</v>
       </c>
       <c r="AD3" t="n">
-        <v>271119.6529495621</v>
+        <v>348689.597313691</v>
       </c>
       <c r="AE3" t="n">
-        <v>370957.8701205183</v>
+        <v>477092.4901439419</v>
       </c>
       <c r="AF3" t="n">
         <v>1.082312346592977e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.48177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>335554.1716388559</v>
+        <v>431559.4524881187</v>
       </c>
     </row>
     <row r="4">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.5500845788701</v>
+        <v>310.1531833319256</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.1852851063222</v>
+        <v>424.365268427493</v>
       </c>
       <c r="AC4" t="n">
-        <v>287.8181280717216</v>
+        <v>383.8644428091672</v>
       </c>
       <c r="AD4" t="n">
-        <v>232550.0845788701</v>
+        <v>310153.1833319255</v>
       </c>
       <c r="AE4" t="n">
-        <v>318185.2851063222</v>
+        <v>424365.268427493</v>
       </c>
       <c r="AF4" t="n">
         <v>1.198996974550594e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.97786458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>287818.1280717216</v>
+        <v>383864.4428091672</v>
       </c>
     </row>
     <row r="5">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>220.8150055904603</v>
+        <v>279.0354233945</v>
       </c>
       <c r="AB5" t="n">
-        <v>302.1288323192415</v>
+        <v>381.7885764624276</v>
       </c>
       <c r="AC5" t="n">
-        <v>273.2940806032617</v>
+        <v>345.3512105684852</v>
       </c>
       <c r="AD5" t="n">
-        <v>220815.0055904603</v>
+        <v>279035.4233945</v>
       </c>
       <c r="AE5" t="n">
-        <v>302128.8323192415</v>
+        <v>381788.5764624276</v>
       </c>
       <c r="AF5" t="n">
         <v>1.28347942523599e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.05989583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>273294.0806032617</v>
+        <v>345351.2105684852</v>
       </c>
     </row>
     <row r="6">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>209.2468857799637</v>
+        <v>277.1752212529728</v>
       </c>
       <c r="AB6" t="n">
-        <v>286.3008204451006</v>
+        <v>379.2433658260636</v>
       </c>
       <c r="AC6" t="n">
-        <v>258.9766719676296</v>
+        <v>343.0489112630302</v>
       </c>
       <c r="AD6" t="n">
-        <v>209246.8857799637</v>
+        <v>277175.2212529728</v>
       </c>
       <c r="AE6" t="n">
-        <v>286300.8204451005</v>
+        <v>379243.3658260636</v>
       </c>
       <c r="AF6" t="n">
         <v>1.297173716450076e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>258976.6719676296</v>
+        <v>343048.9112630302</v>
       </c>
     </row>
     <row r="7">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>205.8203727126365</v>
+        <v>273.7487081856456</v>
       </c>
       <c r="AB7" t="n">
-        <v>281.6125140992982</v>
+        <v>374.5550594802588</v>
       </c>
       <c r="AC7" t="n">
-        <v>254.7358109993899</v>
+        <v>338.8080502947898</v>
       </c>
       <c r="AD7" t="n">
-        <v>205820.3727126365</v>
+        <v>273748.7081856456</v>
       </c>
       <c r="AE7" t="n">
-        <v>281612.5140992982</v>
+        <v>374555.0594802588</v>
       </c>
       <c r="AF7" t="n">
         <v>1.321370396414814e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>254735.8109993899</v>
+        <v>338808.0502947898</v>
       </c>
     </row>
     <row r="8">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>202.595875412008</v>
+        <v>260.7821277972666</v>
       </c>
       <c r="AB8" t="n">
-        <v>277.2006146377993</v>
+        <v>356.8136121477249</v>
       </c>
       <c r="AC8" t="n">
-        <v>250.7449770303552</v>
+        <v>322.7598217953952</v>
       </c>
       <c r="AD8" t="n">
-        <v>202595.875412008</v>
+        <v>260782.1277972666</v>
       </c>
       <c r="AE8" t="n">
-        <v>277200.6146377993</v>
+        <v>356813.6121477249</v>
       </c>
       <c r="AF8" t="n">
         <v>1.343147408383079e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>250744.9770303553</v>
+        <v>322759.8217953952</v>
       </c>
     </row>
     <row r="9">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>200.451252806683</v>
+        <v>258.6375051919416</v>
       </c>
       <c r="AB9" t="n">
-        <v>274.2662473751233</v>
+        <v>353.8792448850475</v>
       </c>
       <c r="AC9" t="n">
-        <v>248.0906616608178</v>
+        <v>320.1055064258573</v>
       </c>
       <c r="AD9" t="n">
-        <v>200451.252806683</v>
+        <v>258637.5051919416</v>
       </c>
       <c r="AE9" t="n">
-        <v>274266.2473751233</v>
+        <v>353879.2448850474</v>
       </c>
       <c r="AF9" t="n">
         <v>1.355528901003333e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.36328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>248090.6616608178</v>
+        <v>320105.5064258573</v>
       </c>
     </row>
     <row r="10">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>198.4277314667598</v>
+        <v>256.6139838520152</v>
       </c>
       <c r="AB10" t="n">
-        <v>271.4975762063809</v>
+        <v>351.110573716133</v>
       </c>
       <c r="AC10" t="n">
-        <v>245.5862285825648</v>
+        <v>317.6010733475554</v>
       </c>
       <c r="AD10" t="n">
-        <v>198427.7314667598</v>
+        <v>256613.9838520152</v>
       </c>
       <c r="AE10" t="n">
-        <v>271497.5762063809</v>
+        <v>351110.573716133</v>
       </c>
       <c r="AF10" t="n">
         <v>1.367472794092311e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.25260416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>245586.2285825648</v>
+        <v>317601.0733475554</v>
       </c>
     </row>
     <row r="11">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>195.8017648578512</v>
+        <v>253.9880172431066</v>
       </c>
       <c r="AB11" t="n">
-        <v>267.9046128426032</v>
+        <v>347.5176103523555</v>
       </c>
       <c r="AC11" t="n">
-        <v>242.3361725994693</v>
+        <v>314.3510173644599</v>
       </c>
       <c r="AD11" t="n">
-        <v>195801.7648578512</v>
+        <v>253988.0172431066</v>
       </c>
       <c r="AE11" t="n">
-        <v>267904.6128426032</v>
+        <v>347517.6103523555</v>
       </c>
       <c r="AF11" t="n">
         <v>1.382351178155735e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.12239583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>242336.1725994693</v>
+        <v>314351.0173644599</v>
       </c>
     </row>
     <row r="12">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>193.9274063737957</v>
+        <v>252.113658759051</v>
       </c>
       <c r="AB12" t="n">
-        <v>265.3400328738595</v>
+        <v>344.9530303836118</v>
       </c>
       <c r="AC12" t="n">
-        <v>240.016352543531</v>
+        <v>312.0311973085216</v>
       </c>
       <c r="AD12" t="n">
-        <v>193927.4063737957</v>
+        <v>252113.6587590511</v>
       </c>
       <c r="AE12" t="n">
-        <v>265340.0328738595</v>
+        <v>344953.0303836118</v>
       </c>
       <c r="AF12" t="n">
         <v>1.383149153771594e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>240016.352543531</v>
+        <v>312031.1973085216</v>
       </c>
     </row>
     <row r="13">
@@ -11094,28 +11094,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>193.5074831073372</v>
+        <v>251.6937354925926</v>
       </c>
       <c r="AB13" t="n">
-        <v>264.7654753349843</v>
+        <v>344.3784728447365</v>
       </c>
       <c r="AC13" t="n">
-        <v>239.4966299697693</v>
+        <v>311.5114747347599</v>
       </c>
       <c r="AD13" t="n">
-        <v>193507.4831073372</v>
+        <v>251693.7354925926</v>
       </c>
       <c r="AE13" t="n">
-        <v>264765.4753349843</v>
+        <v>344378.4728447365</v>
       </c>
       <c r="AF13" t="n">
         <v>1.387679595977757e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.07682291666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>239496.6299697693</v>
+        <v>311511.4747347599</v>
       </c>
     </row>
     <row r="14">
@@ -11200,28 +11200,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>193.825236921607</v>
+        <v>252.0114893068624</v>
       </c>
       <c r="AB14" t="n">
-        <v>265.2002401219769</v>
+        <v>344.8132376317292</v>
       </c>
       <c r="AC14" t="n">
-        <v>239.8899014156877</v>
+        <v>311.9047461806783</v>
       </c>
       <c r="AD14" t="n">
-        <v>193825.236921607</v>
+        <v>252011.4893068623</v>
       </c>
       <c r="AE14" t="n">
-        <v>265200.2401219769</v>
+        <v>344813.2376317292</v>
       </c>
       <c r="AF14" t="n">
         <v>1.386778655766304e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>239889.9014156877</v>
+        <v>311904.7461806783</v>
       </c>
     </row>
   </sheetData>
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.0243879902319</v>
+        <v>238.2495313056453</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.1078450622805</v>
+        <v>325.9835195597358</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.3831665160648</v>
+        <v>294.8721099737946</v>
       </c>
       <c r="AD2" t="n">
-        <v>174024.3879902319</v>
+        <v>238249.5313056453</v>
       </c>
       <c r="AE2" t="n">
-        <v>238107.8450622805</v>
+        <v>325983.5195597358</v>
       </c>
       <c r="AF2" t="n">
         <v>2.258853695266736e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.30078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>215383.1665160648</v>
+        <v>294872.1099737947</v>
       </c>
     </row>
     <row r="3">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.2921582434796</v>
+        <v>213.3619486145455</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.5823142657925</v>
+        <v>291.9312309591321</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.9120021675145</v>
+        <v>264.0697240045345</v>
       </c>
       <c r="AD3" t="n">
-        <v>158292.1582434796</v>
+        <v>213361.9486145455</v>
       </c>
       <c r="AE3" t="n">
-        <v>216582.3142657925</v>
+        <v>291931.2309591321</v>
       </c>
       <c r="AF3" t="n">
         <v>2.407109137577722e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.48046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>195912.0021675145</v>
+        <v>264069.7240045345</v>
       </c>
     </row>
   </sheetData>
@@ -11900,28 +11900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.5411249993392</v>
+        <v>426.3913974164889</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.2609496693546</v>
+        <v>583.4075210060771</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.0977993851401</v>
+        <v>527.7279260188546</v>
       </c>
       <c r="AD2" t="n">
-        <v>330541.1249993392</v>
+        <v>426391.3974164888</v>
       </c>
       <c r="AE2" t="n">
-        <v>452260.9496693546</v>
+        <v>583407.5210060771</v>
       </c>
       <c r="AF2" t="n">
         <v>9.865184986171827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.92578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>409097.7993851401</v>
+        <v>527727.9260188546</v>
       </c>
     </row>
     <row r="3">
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.2887596856722</v>
+        <v>301.3405463631221</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.5642170923798</v>
+        <v>412.3074297406721</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.9700181278827</v>
+        <v>372.9573873233337</v>
       </c>
       <c r="AD3" t="n">
-        <v>234288.7596856722</v>
+        <v>301340.5463631221</v>
       </c>
       <c r="AE3" t="n">
-        <v>320564.2170923798</v>
+        <v>412307.4297406722</v>
       </c>
       <c r="AF3" t="n">
         <v>1.300423785843631e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.36197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>289970.0181278827</v>
+        <v>372957.3873233337</v>
       </c>
     </row>
     <row r="4">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.8524339023502</v>
+        <v>268.3499422149875</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.4976022179329</v>
+        <v>367.1682297024594</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.9637959712661</v>
+        <v>332.1262091835029</v>
       </c>
       <c r="AD4" t="n">
-        <v>210852.4339023503</v>
+        <v>268349.9422149875</v>
       </c>
       <c r="AE4" t="n">
-        <v>288497.6022179329</v>
+        <v>367168.2297024594</v>
       </c>
       <c r="AF4" t="n">
         <v>1.4191134860029e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.15755208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>260963.7959712661</v>
+        <v>332126.2091835029</v>
       </c>
     </row>
     <row r="5">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>196.2174787602678</v>
+        <v>263.3024198266407</v>
       </c>
       <c r="AB5" t="n">
-        <v>268.4734109438924</v>
+        <v>360.2619868897517</v>
       </c>
       <c r="AC5" t="n">
-        <v>242.8506854082847</v>
+        <v>325.8790884918673</v>
       </c>
       <c r="AD5" t="n">
-        <v>196217.4787602678</v>
+        <v>263302.4198266407</v>
       </c>
       <c r="AE5" t="n">
-        <v>268473.4109438924</v>
+        <v>360261.9868897516</v>
       </c>
       <c r="AF5" t="n">
         <v>1.462797491160601e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.76692708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>242850.6854082847</v>
+        <v>325879.0884918672</v>
       </c>
     </row>
     <row r="6">
@@ -12324,28 +12324,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>191.9441580108804</v>
+        <v>249.4075009047334</v>
       </c>
       <c r="AB6" t="n">
-        <v>262.6264649689775</v>
+        <v>341.2503458200777</v>
       </c>
       <c r="AC6" t="n">
-        <v>237.5617637509736</v>
+        <v>308.6818917629796</v>
       </c>
       <c r="AD6" t="n">
-        <v>191944.1580108803</v>
+        <v>249407.5009047334</v>
       </c>
       <c r="AE6" t="n">
-        <v>262626.4649689775</v>
+        <v>341250.3458200777</v>
       </c>
       <c r="AF6" t="n">
         <v>1.498421610928076e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.4609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>237561.7637509736</v>
+        <v>308681.8917629796</v>
       </c>
     </row>
     <row r="7">
@@ -12430,28 +12430,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>187.828885757983</v>
+        <v>245.2922286518361</v>
       </c>
       <c r="AB7" t="n">
-        <v>256.9957679195678</v>
+        <v>335.6196487706679</v>
       </c>
       <c r="AC7" t="n">
-        <v>232.4684525252248</v>
+        <v>303.5885805372308</v>
       </c>
       <c r="AD7" t="n">
-        <v>187828.885757983</v>
+        <v>245292.2286518361</v>
       </c>
       <c r="AE7" t="n">
-        <v>256995.7679195678</v>
+        <v>335619.648770668</v>
       </c>
       <c r="AF7" t="n">
         <v>1.534848850947958e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.16796875</v>
       </c>
       <c r="AH7" t="n">
-        <v>232468.4525252248</v>
+        <v>303588.5805372308</v>
       </c>
     </row>
     <row r="8">
@@ -12536,28 +12536,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>185.7964687953418</v>
+        <v>243.2598116891948</v>
       </c>
       <c r="AB8" t="n">
-        <v>254.2149253673751</v>
+        <v>332.8388062184753</v>
       </c>
       <c r="AC8" t="n">
-        <v>229.9530096832755</v>
+        <v>301.0731376952816</v>
       </c>
       <c r="AD8" t="n">
-        <v>185796.4687953418</v>
+        <v>243259.8116891948</v>
       </c>
       <c r="AE8" t="n">
-        <v>254214.9253673751</v>
+        <v>332838.8062184753</v>
       </c>
       <c r="AF8" t="n">
         <v>1.541359861565685e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>229953.0096832755</v>
+        <v>301073.1376952815</v>
       </c>
     </row>
     <row r="9">
@@ -12642,28 +12642,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>183.8788126941691</v>
+        <v>241.3421555880222</v>
       </c>
       <c r="AB9" t="n">
-        <v>251.5911036887357</v>
+        <v>330.2149845398359</v>
       </c>
       <c r="AC9" t="n">
-        <v>227.5796018630877</v>
+        <v>298.6997298750938</v>
       </c>
       <c r="AD9" t="n">
-        <v>183878.8126941691</v>
+        <v>241342.1555880222</v>
       </c>
       <c r="AE9" t="n">
-        <v>251591.1036887357</v>
+        <v>330214.9845398359</v>
       </c>
       <c r="AF9" t="n">
         <v>1.553091153824056e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>227579.6018630877</v>
+        <v>298699.7298750938</v>
       </c>
     </row>
     <row r="10">
@@ -12748,28 +12748,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>184.0508203051754</v>
+        <v>241.5141631990285</v>
       </c>
       <c r="AB10" t="n">
-        <v>251.8264520905546</v>
+        <v>330.4503329416548</v>
       </c>
       <c r="AC10" t="n">
-        <v>227.7924889437507</v>
+        <v>298.9126169557567</v>
       </c>
       <c r="AD10" t="n">
-        <v>184050.8203051754</v>
+        <v>241514.1631990285</v>
       </c>
       <c r="AE10" t="n">
-        <v>251826.4520905546</v>
+        <v>330450.3329416548</v>
       </c>
       <c r="AF10" t="n">
         <v>1.553750859745676e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>227792.4889437507</v>
+        <v>298912.6169557567</v>
       </c>
     </row>
   </sheetData>
@@ -13045,28 +13045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.018019158839</v>
+        <v>489.0443632813024</v>
       </c>
       <c r="AB2" t="n">
-        <v>524.0621513755597</v>
+        <v>669.1320729560916</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.0463951741245</v>
+        <v>605.2710470459241</v>
       </c>
       <c r="AD2" t="n">
-        <v>383018.019158839</v>
+        <v>489044.3632813024</v>
       </c>
       <c r="AE2" t="n">
-        <v>524062.1513755597</v>
+        <v>669132.0729560916</v>
       </c>
       <c r="AF2" t="n">
         <v>8.6003594019919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>474046.3951741245</v>
+        <v>605271.0470459241</v>
       </c>
     </row>
     <row r="3">
@@ -13151,28 +13151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.9165542968256</v>
+        <v>324.0911123454875</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.8421227783314</v>
+        <v>443.4357578018792</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.5989447448655</v>
+        <v>401.114871443262</v>
       </c>
       <c r="AD3" t="n">
-        <v>246916.5542968256</v>
+        <v>324091.1123454875</v>
       </c>
       <c r="AE3" t="n">
-        <v>337842.1227783315</v>
+        <v>443435.7578018792</v>
       </c>
       <c r="AF3" t="n">
         <v>1.186008134369002e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.86328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>305598.9447448655</v>
+        <v>401114.871443262</v>
       </c>
     </row>
     <row r="4">
@@ -13257,28 +13257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.496689271181</v>
+        <v>289.0543223051934</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.0615420049646</v>
+        <v>395.4968759546633</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.1377737856459</v>
+        <v>357.7512091969011</v>
       </c>
       <c r="AD4" t="n">
-        <v>221496.689271181</v>
+        <v>289054.3223051934</v>
       </c>
       <c r="AE4" t="n">
-        <v>303061.5420049646</v>
+        <v>395496.8759546633</v>
       </c>
       <c r="AF4" t="n">
         <v>1.300558662071035e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.5546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>274137.773785646</v>
+        <v>357751.2091969011</v>
       </c>
     </row>
     <row r="5">
@@ -13363,28 +13363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.8111328165734</v>
+        <v>285.2672806241005</v>
       </c>
       <c r="AB5" t="n">
-        <v>298.0188010684976</v>
+        <v>390.3152784541043</v>
       </c>
       <c r="AC5" t="n">
-        <v>269.5763049666224</v>
+        <v>353.0641360893778</v>
       </c>
       <c r="AD5" t="n">
-        <v>217811.1328165734</v>
+        <v>285267.2806241005</v>
       </c>
       <c r="AE5" t="n">
-        <v>298018.8010684976</v>
+        <v>390315.2784541043</v>
       </c>
       <c r="AF5" t="n">
         <v>1.331829250465232e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.23567708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>269576.3049666224</v>
+        <v>353064.1360893777</v>
       </c>
     </row>
     <row r="6">
@@ -13469,28 +13469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>200.3495291029006</v>
+        <v>267.8729967181318</v>
       </c>
       <c r="AB6" t="n">
-        <v>274.1270645158753</v>
+        <v>366.5156518323112</v>
       </c>
       <c r="AC6" t="n">
-        <v>247.964762218312</v>
+        <v>331.5359124293828</v>
       </c>
       <c r="AD6" t="n">
-        <v>200349.5291029006</v>
+        <v>267872.9967181318</v>
       </c>
       <c r="AE6" t="n">
-        <v>274127.0645158753</v>
+        <v>366515.6518323112</v>
       </c>
       <c r="AF6" t="n">
         <v>1.393449907768429e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.64973958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>247964.762218312</v>
+        <v>331535.9124293828</v>
       </c>
     </row>
     <row r="7">
@@ -13575,28 +13575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>196.8026372431769</v>
+        <v>254.6418600360514</v>
       </c>
       <c r="AB7" t="n">
-        <v>269.2740505955786</v>
+        <v>348.4122269071703</v>
       </c>
       <c r="AC7" t="n">
-        <v>243.574913135319</v>
+        <v>315.1602529708857</v>
       </c>
       <c r="AD7" t="n">
-        <v>196802.6372431769</v>
+        <v>254641.8600360514</v>
       </c>
       <c r="AE7" t="n">
-        <v>269274.0505955786</v>
+        <v>348412.2269071704</v>
       </c>
       <c r="AF7" t="n">
         <v>1.419305675661466e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>243574.913135319</v>
+        <v>315160.2529708857</v>
       </c>
     </row>
     <row r="8">
@@ -13681,28 +13681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>195.4287329001385</v>
+        <v>253.267955693013</v>
       </c>
       <c r="AB8" t="n">
-        <v>267.3942140610527</v>
+        <v>346.5323903726444</v>
       </c>
       <c r="AC8" t="n">
-        <v>241.8744855612805</v>
+        <v>313.4598253968472</v>
       </c>
       <c r="AD8" t="n">
-        <v>195428.7329001385</v>
+        <v>253267.955693013</v>
       </c>
       <c r="AE8" t="n">
-        <v>267394.2140610527</v>
+        <v>346532.3903726444</v>
       </c>
       <c r="AF8" t="n">
         <v>1.425316126417753e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>241874.4855612805</v>
+        <v>313459.8253968472</v>
       </c>
     </row>
     <row r="9">
@@ -13787,28 +13787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>192.0403706929195</v>
+        <v>249.879593485794</v>
       </c>
       <c r="AB9" t="n">
-        <v>262.7581074051474</v>
+        <v>341.8962837167392</v>
       </c>
       <c r="AC9" t="n">
-        <v>237.6808424177968</v>
+        <v>309.2661822533635</v>
       </c>
       <c r="AD9" t="n">
-        <v>192040.3706929195</v>
+        <v>249879.593485794</v>
       </c>
       <c r="AE9" t="n">
-        <v>262758.1074051474</v>
+        <v>341896.2837167392</v>
       </c>
       <c r="AF9" t="n">
         <v>1.449303781237891e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>237680.8424177968</v>
+        <v>309266.1822533635</v>
       </c>
     </row>
     <row r="10">
@@ -13893,28 +13893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>189.547312882422</v>
+        <v>247.3865356752964</v>
       </c>
       <c r="AB10" t="n">
-        <v>259.3469957228782</v>
+        <v>338.4851720344699</v>
       </c>
       <c r="AC10" t="n">
-        <v>234.5952824469569</v>
+        <v>306.1806222825236</v>
       </c>
       <c r="AD10" t="n">
-        <v>189547.312882422</v>
+        <v>247386.5356752964</v>
       </c>
       <c r="AE10" t="n">
-        <v>259346.9957228782</v>
+        <v>338485.17203447</v>
       </c>
       <c r="AF10" t="n">
         <v>1.463544759155941e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.04427083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>234595.2824469569</v>
+        <v>306180.6222825236</v>
       </c>
     </row>
     <row r="11">
@@ -13999,28 +13999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>188.5771974251738</v>
+        <v>246.4164202180483</v>
       </c>
       <c r="AB11" t="n">
-        <v>258.0196409557984</v>
+        <v>337.1578172673902</v>
       </c>
       <c r="AC11" t="n">
-        <v>233.3946085558927</v>
+        <v>304.9799483914594</v>
       </c>
       <c r="AD11" t="n">
-        <v>188577.1974251738</v>
+        <v>246416.4202180483</v>
       </c>
       <c r="AE11" t="n">
-        <v>258019.6409557984</v>
+        <v>337157.8172673902</v>
       </c>
       <c r="AF11" t="n">
         <v>1.464492352743644e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.03776041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>233394.6085558927</v>
+        <v>304979.9483914594</v>
       </c>
     </row>
     <row r="12">
@@ -14105,28 +14105,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>188.9789987502467</v>
+        <v>246.8182215431212</v>
       </c>
       <c r="AB12" t="n">
-        <v>258.5694032549864</v>
+        <v>337.7075795665781</v>
       </c>
       <c r="AC12" t="n">
-        <v>233.8919023128426</v>
+        <v>305.4772421484093</v>
       </c>
       <c r="AD12" t="n">
-        <v>188978.9987502467</v>
+        <v>246818.2215431212</v>
       </c>
       <c r="AE12" t="n">
-        <v>258569.4032549864</v>
+        <v>337707.5795665781</v>
       </c>
       <c r="AF12" t="n">
         <v>1.46167664608304e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>233891.9023128426</v>
+        <v>305477.2421484093</v>
       </c>
     </row>
   </sheetData>
@@ -14402,28 +14402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>505.7643032797071</v>
+        <v>622.8510031932569</v>
       </c>
       <c r="AB2" t="n">
-        <v>692.0090324936023</v>
+        <v>852.2122208159584</v>
       </c>
       <c r="AC2" t="n">
-        <v>625.9646616731891</v>
+        <v>770.8782825486468</v>
       </c>
       <c r="AD2" t="n">
-        <v>505764.3032797071</v>
+        <v>622851.0031932569</v>
       </c>
       <c r="AE2" t="n">
-        <v>692009.0324936023</v>
+        <v>852212.2208159585</v>
       </c>
       <c r="AF2" t="n">
         <v>6.645924154957785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.10807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>625964.6616731891</v>
+        <v>770878.2825486468</v>
       </c>
     </row>
     <row r="3">
@@ -14508,28 +14508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.2355654113957</v>
+        <v>373.2709254178608</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.9543254697692</v>
+        <v>510.7257477077262</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.4014916003903</v>
+        <v>461.982799154589</v>
       </c>
       <c r="AD3" t="n">
-        <v>295235.5654113957</v>
+        <v>373270.9254178609</v>
       </c>
       <c r="AE3" t="n">
-        <v>403954.3254697692</v>
+        <v>510725.7477077262</v>
       </c>
       <c r="AF3" t="n">
         <v>9.974916123256086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.06119791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>365401.4916003903</v>
+        <v>461982.799154589</v>
       </c>
     </row>
     <row r="4">
@@ -14614,28 +14614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>252.6514226798616</v>
+        <v>320.9239477095587</v>
       </c>
       <c r="AB4" t="n">
-        <v>345.6888227045342</v>
+        <v>439.1023034215589</v>
       </c>
       <c r="AC4" t="n">
-        <v>312.6967666430264</v>
+        <v>397.194995866958</v>
       </c>
       <c r="AD4" t="n">
-        <v>252651.4226798615</v>
+        <v>320923.9477095586</v>
       </c>
       <c r="AE4" t="n">
-        <v>345688.8227045342</v>
+        <v>439102.3034215589</v>
       </c>
       <c r="AF4" t="n">
         <v>1.117917146118922e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.3359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>312696.7666430264</v>
+        <v>397194.9958669581</v>
       </c>
     </row>
     <row r="5">
@@ -14720,28 +14720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.3235803344216</v>
+        <v>300.6634251718229</v>
       </c>
       <c r="AB5" t="n">
-        <v>317.8753720064059</v>
+        <v>411.3809626542579</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.5377926430955</v>
+        <v>372.1193409553422</v>
       </c>
       <c r="AD5" t="n">
-        <v>232323.5803344217</v>
+        <v>300663.4251718229</v>
       </c>
       <c r="AE5" t="n">
-        <v>317875.372006406</v>
+        <v>411380.9626542579</v>
       </c>
       <c r="AF5" t="n">
         <v>1.185205805303659e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.52213541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>287537.7926430955</v>
+        <v>372119.3409553422</v>
       </c>
     </row>
     <row r="6">
@@ -14826,28 +14826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>228.405030369802</v>
+        <v>296.643389980718</v>
       </c>
       <c r="AB6" t="n">
-        <v>312.5138390705926</v>
+        <v>405.8805731543525</v>
       </c>
       <c r="AC6" t="n">
-        <v>282.6879568857157</v>
+        <v>367.1439009094625</v>
       </c>
       <c r="AD6" t="n">
-        <v>228405.030369802</v>
+        <v>296643.389980718</v>
       </c>
       <c r="AE6" t="n">
-        <v>312513.8390705925</v>
+        <v>405880.5731543525</v>
       </c>
       <c r="AF6" t="n">
         <v>1.212598737883254e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.21614583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>282687.9568857157</v>
+        <v>367143.9009094625</v>
       </c>
     </row>
     <row r="7">
@@ -14932,28 +14932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>213.8762325818025</v>
+        <v>282.1819120004226</v>
       </c>
       <c r="AB7" t="n">
-        <v>292.6348969717402</v>
+        <v>386.0937409863313</v>
       </c>
       <c r="AC7" t="n">
-        <v>264.706233120501</v>
+        <v>349.245496232564</v>
       </c>
       <c r="AD7" t="n">
-        <v>213876.2325818025</v>
+        <v>282181.9120004227</v>
       </c>
       <c r="AE7" t="n">
-        <v>292634.8969717402</v>
+        <v>386093.7409863314</v>
       </c>
       <c r="AF7" t="n">
         <v>1.243289651564076e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>264706.233120501</v>
+        <v>349245.496232564</v>
       </c>
     </row>
     <row r="8">
@@ -15038,28 +15038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>210.7983262090282</v>
+        <v>279.1040056276483</v>
       </c>
       <c r="AB8" t="n">
-        <v>288.4235696848667</v>
+        <v>381.8824136994558</v>
       </c>
       <c r="AC8" t="n">
-        <v>260.8968289992504</v>
+        <v>345.4360921113128</v>
       </c>
       <c r="AD8" t="n">
-        <v>210798.3262090282</v>
+        <v>279104.0056276483</v>
       </c>
       <c r="AE8" t="n">
-        <v>288423.5696848667</v>
+        <v>381882.4136994557</v>
       </c>
       <c r="AF8" t="n">
         <v>1.262856031978072e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.68880208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>260896.8289992504</v>
+        <v>345436.0921113128</v>
       </c>
     </row>
     <row r="9">
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>206.186449995203</v>
+        <v>264.6961400481283</v>
       </c>
       <c r="AB9" t="n">
-        <v>282.1133971874953</v>
+        <v>362.1689363833875</v>
       </c>
       <c r="AC9" t="n">
-        <v>255.1888905086434</v>
+        <v>327.604041402251</v>
       </c>
       <c r="AD9" t="n">
-        <v>206186.449995203</v>
+        <v>264696.1400481283</v>
       </c>
       <c r="AE9" t="n">
-        <v>282113.3971874953</v>
+        <v>362168.9363833875</v>
       </c>
       <c r="AF9" t="n">
         <v>1.294506805830147e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.37630208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>255188.8905086434</v>
+        <v>327604.041402251</v>
       </c>
     </row>
     <row r="10">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>206.0983431232982</v>
+        <v>264.6080331762234</v>
       </c>
       <c r="AB10" t="n">
-        <v>281.9928454783542</v>
+        <v>362.0483846742465</v>
       </c>
       <c r="AC10" t="n">
-        <v>255.0798440854273</v>
+        <v>327.4949949790349</v>
       </c>
       <c r="AD10" t="n">
-        <v>206098.3431232981</v>
+        <v>264608.0331762234</v>
       </c>
       <c r="AE10" t="n">
-        <v>281992.8454783543</v>
+        <v>362048.3846742465</v>
       </c>
       <c r="AF10" t="n">
         <v>1.29138110732376e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.40885416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>255079.8440854274</v>
+        <v>327494.9949790349</v>
       </c>
     </row>
     <row r="11">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>204.4863088780061</v>
+        <v>262.9959989309313</v>
       </c>
       <c r="AB11" t="n">
-        <v>279.7871891060152</v>
+        <v>359.8427283019063</v>
       </c>
       <c r="AC11" t="n">
-        <v>253.0846924616055</v>
+        <v>325.4998433552127</v>
       </c>
       <c r="AD11" t="n">
-        <v>204486.3088780061</v>
+        <v>262995.9989309313</v>
       </c>
       <c r="AE11" t="n">
-        <v>279787.1891060152</v>
+        <v>359842.7283019063</v>
       </c>
       <c r="AF11" t="n">
         <v>1.296771091362333e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.35677083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>253084.6924616055</v>
+        <v>325499.8433552127</v>
       </c>
     </row>
     <row r="12">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>202.2142548526515</v>
+        <v>260.7239449055767</v>
       </c>
       <c r="AB12" t="n">
-        <v>276.6784645525773</v>
+        <v>356.7340037484668</v>
       </c>
       <c r="AC12" t="n">
-        <v>250.2726602164244</v>
+        <v>322.6878111100312</v>
       </c>
       <c r="AD12" t="n">
-        <v>202214.2548526515</v>
+        <v>260723.9449055767</v>
       </c>
       <c r="AE12" t="n">
-        <v>276678.4645525773</v>
+        <v>356734.0037484668</v>
       </c>
       <c r="AF12" t="n">
         <v>1.311242829328911e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>250272.6602164244</v>
+        <v>322687.8111100312</v>
       </c>
     </row>
     <row r="13">
@@ -15568,28 +15568,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>200.8776837736167</v>
+        <v>259.3873738265419</v>
       </c>
       <c r="AB13" t="n">
-        <v>274.8497090368883</v>
+        <v>354.9052482327769</v>
       </c>
       <c r="AC13" t="n">
-        <v>248.6184385604777</v>
+        <v>321.0335894540842</v>
       </c>
       <c r="AD13" t="n">
-        <v>200877.6837736167</v>
+        <v>259387.3738265419</v>
       </c>
       <c r="AE13" t="n">
-        <v>274849.7090368883</v>
+        <v>354905.2482327769</v>
       </c>
       <c r="AF13" t="n">
         <v>1.312793372682473e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.20703125</v>
       </c>
       <c r="AH13" t="n">
-        <v>248618.4385604777</v>
+        <v>321033.5894540842</v>
       </c>
     </row>
     <row r="14">
@@ -15674,28 +15674,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>199.767080912012</v>
+        <v>258.2767709649372</v>
       </c>
       <c r="AB14" t="n">
-        <v>273.3301332053013</v>
+        <v>353.385672401189</v>
       </c>
       <c r="AC14" t="n">
-        <v>247.2438889135187</v>
+        <v>319.659039807125</v>
       </c>
       <c r="AD14" t="n">
-        <v>199767.080912012</v>
+        <v>258276.7709649371</v>
       </c>
       <c r="AE14" t="n">
-        <v>273330.1332053012</v>
+        <v>353385.672401189</v>
       </c>
       <c r="AF14" t="n">
         <v>1.318577145509252e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.15494791666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>247243.8889135187</v>
+        <v>319659.039807125</v>
       </c>
     </row>
     <row r="15">
@@ -15780,28 +15780,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>197.5547593895384</v>
+        <v>256.0644494424604</v>
       </c>
       <c r="AB15" t="n">
-        <v>270.3031372975172</v>
+        <v>350.3586764932334</v>
       </c>
       <c r="AC15" t="n">
-        <v>244.5057852467572</v>
+        <v>316.9209361403147</v>
       </c>
       <c r="AD15" t="n">
-        <v>197554.7593895384</v>
+        <v>256064.4494424604</v>
       </c>
       <c r="AE15" t="n">
-        <v>270303.1372975172</v>
+        <v>350358.6764932334</v>
       </c>
       <c r="AF15" t="n">
         <v>1.327412781444629e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH15" t="n">
-        <v>244505.7852467572</v>
+        <v>316920.9361403147</v>
       </c>
     </row>
     <row r="16">
@@ -15886,28 +15886,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>198.1343958444519</v>
+        <v>256.6440858973738</v>
       </c>
       <c r="AB16" t="n">
-        <v>271.0962214668851</v>
+        <v>351.1517606626012</v>
       </c>
       <c r="AC16" t="n">
-        <v>245.2231785761015</v>
+        <v>317.638329469659</v>
       </c>
       <c r="AD16" t="n">
-        <v>198134.3958444519</v>
+        <v>256644.0858973739</v>
       </c>
       <c r="AE16" t="n">
-        <v>271096.2214668851</v>
+        <v>351151.7606626013</v>
       </c>
       <c r="AF16" t="n">
         <v>1.324336306536768e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>245223.1785761015</v>
+        <v>317638.329469659</v>
       </c>
     </row>
   </sheetData>
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.1501508516665</v>
+        <v>378.827828754521</v>
       </c>
       <c r="AB2" t="n">
-        <v>401.1009692671503</v>
+        <v>518.3289480062178</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.8204557090388</v>
+        <v>468.8603606877512</v>
       </c>
       <c r="AD2" t="n">
-        <v>293150.1508516665</v>
+        <v>378827.828754521</v>
       </c>
       <c r="AE2" t="n">
-        <v>401100.9692671503</v>
+        <v>518328.9480062178</v>
       </c>
       <c r="AF2" t="n">
         <v>1.136470436329009e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>362820.4557090388</v>
+        <v>468860.3606877511</v>
       </c>
     </row>
     <row r="3">
@@ -16289,28 +16289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.4206485983767</v>
+        <v>278.0588425228217</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.275058632899</v>
+        <v>380.4523754300901</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.667053037155</v>
+        <v>344.142534687304</v>
       </c>
       <c r="AD3" t="n">
-        <v>211420.6485983767</v>
+        <v>278058.8425228217</v>
       </c>
       <c r="AE3" t="n">
-        <v>289275.058632899</v>
+        <v>380452.3754300901</v>
       </c>
       <c r="AF3" t="n">
         <v>1.447066824745816e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.80208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>261667.053037155</v>
+        <v>344142.534687304</v>
       </c>
     </row>
     <row r="4">
@@ -16395,28 +16395,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.6564493220207</v>
+        <v>256.2604778276814</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.4963210142969</v>
+        <v>350.6268911780547</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.7303563421421</v>
+        <v>317.1635527920583</v>
       </c>
       <c r="AD4" t="n">
-        <v>189656.4493220207</v>
+        <v>256260.4778276814</v>
       </c>
       <c r="AE4" t="n">
-        <v>259496.3210142969</v>
+        <v>350626.8911780547</v>
       </c>
       <c r="AF4" t="n">
         <v>1.572250393326333e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.70182291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>234730.3563421421</v>
+        <v>317163.5527920583</v>
       </c>
     </row>
     <row r="5">
@@ -16501,28 +16501,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>186.1213578102891</v>
+        <v>243.1724899378203</v>
       </c>
       <c r="AB5" t="n">
-        <v>254.6594528507177</v>
+        <v>332.719328745881</v>
       </c>
       <c r="AC5" t="n">
-        <v>230.3551120875062</v>
+        <v>300.9650629849839</v>
       </c>
       <c r="AD5" t="n">
-        <v>186121.3578102891</v>
+        <v>243172.4899378203</v>
       </c>
       <c r="AE5" t="n">
-        <v>254659.4528507176</v>
+        <v>332719.328745881</v>
       </c>
       <c r="AF5" t="n">
         <v>1.604620164123502e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>230355.1120875062</v>
+        <v>300965.0629849839</v>
       </c>
     </row>
     <row r="6">
@@ -16607,28 +16607,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>181.7903129169329</v>
+        <v>238.8414450444641</v>
       </c>
       <c r="AB6" t="n">
-        <v>248.7335261554152</v>
+        <v>326.7934020505785</v>
       </c>
       <c r="AC6" t="n">
-        <v>224.9947475189111</v>
+        <v>295.6046984163888</v>
       </c>
       <c r="AD6" t="n">
-        <v>181790.3129169329</v>
+        <v>238841.4450444641</v>
       </c>
       <c r="AE6" t="n">
-        <v>248733.5261554152</v>
+        <v>326793.4020505785</v>
       </c>
       <c r="AF6" t="n">
         <v>1.644138898518527e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>224994.7475189111</v>
+        <v>295604.6984163888</v>
       </c>
     </row>
     <row r="7">
@@ -16713,28 +16713,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>179.5867270083982</v>
+        <v>236.6378591359293</v>
       </c>
       <c r="AB7" t="n">
-        <v>245.7184827000102</v>
+        <v>323.7783585951736</v>
       </c>
       <c r="AC7" t="n">
-        <v>222.267455579249</v>
+        <v>292.8774064767267</v>
       </c>
       <c r="AD7" t="n">
-        <v>179586.7270083982</v>
+        <v>236637.8591359293</v>
       </c>
       <c r="AE7" t="n">
-        <v>245718.4827000102</v>
+        <v>323778.3585951736</v>
       </c>
       <c r="AF7" t="n">
         <v>1.656473161893372e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>222267.455579249</v>
+        <v>292877.4064767267</v>
       </c>
     </row>
     <row r="8">
@@ -16819,28 +16819,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>179.1538122151993</v>
+        <v>236.2049443427305</v>
       </c>
       <c r="AB8" t="n">
-        <v>245.1261495811031</v>
+        <v>323.1860254762665</v>
       </c>
       <c r="AC8" t="n">
-        <v>221.7316539018655</v>
+        <v>292.3416047993431</v>
       </c>
       <c r="AD8" t="n">
-        <v>179153.8122151993</v>
+        <v>236204.9443427305</v>
       </c>
       <c r="AE8" t="n">
-        <v>245126.1495811031</v>
+        <v>323186.0254762665</v>
       </c>
       <c r="AF8" t="n">
         <v>1.662855069311203e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.01171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>221731.6539018655</v>
+        <v>292341.6047993432</v>
       </c>
     </row>
   </sheetData>
@@ -17116,28 +17116,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.0846202735771</v>
+        <v>312.2920872227546</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.3896368934132</v>
+        <v>427.2918110927052</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.4303452321171</v>
+        <v>386.5116803498401</v>
       </c>
       <c r="AD2" t="n">
-        <v>237084.6202735771</v>
+        <v>312292.0872227545</v>
       </c>
       <c r="AE2" t="n">
-        <v>324389.6368934133</v>
+        <v>427291.8110927052</v>
       </c>
       <c r="AF2" t="n">
         <v>1.449624529377294e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.67057291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>293430.3452321171</v>
+        <v>386511.6803498401</v>
       </c>
     </row>
     <row r="3">
@@ -17222,28 +17222,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.8665529881366</v>
+        <v>248.2389988110932</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.5202823531677</v>
+        <v>339.6515497048857</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.4657150549884</v>
+        <v>307.2356825050966</v>
       </c>
       <c r="AD3" t="n">
-        <v>191866.5529881367</v>
+        <v>248238.9988110932</v>
       </c>
       <c r="AE3" t="n">
-        <v>262520.2823531677</v>
+        <v>339651.5497048857</v>
       </c>
       <c r="AF3" t="n">
         <v>1.744915184635879e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.01432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>237465.7150549883</v>
+        <v>307235.6825050967</v>
       </c>
     </row>
     <row r="4">
@@ -17328,28 +17328,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.0268229609316</v>
+        <v>231.3651033651072</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.4794208135008</v>
+        <v>316.5639415319711</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.6238410026077</v>
+        <v>286.3515232525361</v>
       </c>
       <c r="AD4" t="n">
-        <v>175026.8229609315</v>
+        <v>231365.1033651072</v>
       </c>
       <c r="AE4" t="n">
-        <v>239479.4208135008</v>
+        <v>316563.9415319711</v>
       </c>
       <c r="AF4" t="n">
         <v>1.838589027897846e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.35677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>216623.8410026077</v>
+        <v>286351.5232525361</v>
       </c>
     </row>
     <row r="5">
@@ -17434,28 +17434,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.65546791823</v>
+        <v>226.9937483224057</v>
       </c>
       <c r="AB5" t="n">
-        <v>233.4983399935057</v>
+        <v>310.582860711976</v>
       </c>
       <c r="AC5" t="n">
-        <v>211.2135861415714</v>
+        <v>280.9412683914998</v>
       </c>
       <c r="AD5" t="n">
-        <v>170655.46791823</v>
+        <v>226993.7483224057</v>
       </c>
       <c r="AE5" t="n">
-        <v>233498.3399935057</v>
+        <v>310582.860711976</v>
       </c>
       <c r="AF5" t="n">
         <v>1.885687608308892e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.04427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>211213.5861415714</v>
+        <v>280941.2683914998</v>
       </c>
     </row>
     <row r="6">
@@ -17540,28 +17540,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>171.0313524142185</v>
+        <v>227.3696328183942</v>
       </c>
       <c r="AB6" t="n">
-        <v>234.0126417437706</v>
+        <v>311.0971624622409</v>
       </c>
       <c r="AC6" t="n">
-        <v>211.6788036546182</v>
+        <v>281.4064859045466</v>
       </c>
       <c r="AD6" t="n">
-        <v>171031.3524142185</v>
+        <v>227369.6328183942</v>
       </c>
       <c r="AE6" t="n">
-        <v>234012.6417437706</v>
+        <v>311097.1624622409</v>
       </c>
       <c r="AF6" t="n">
         <v>1.884396758327256e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.05078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>211678.8036546182</v>
+        <v>281406.4859045466</v>
       </c>
     </row>
   </sheetData>
@@ -32466,28 +32466,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.4763495736391</v>
+        <v>270.5508016895033</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.1418064632924</v>
+        <v>370.1795427305593</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.3100270395219</v>
+        <v>334.8501267226052</v>
       </c>
       <c r="AD2" t="n">
-        <v>205476.349573639</v>
+        <v>270550.8016895032</v>
       </c>
       <c r="AE2" t="n">
-        <v>281141.8064632924</v>
+        <v>370179.5427305593</v>
       </c>
       <c r="AF2" t="n">
         <v>1.760028717864489e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.4921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>254310.0270395219</v>
+        <v>334850.1267226053</v>
       </c>
     </row>
     <row r="3">
@@ -32572,28 +32572,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.0606116924569</v>
+        <v>223.8290963906655</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.9479432284274</v>
+        <v>306.2528443243816</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.0020342607379</v>
+        <v>277.0245026907198</v>
       </c>
       <c r="AD3" t="n">
-        <v>168060.6116924569</v>
+        <v>223829.0963906655</v>
       </c>
       <c r="AE3" t="n">
-        <v>229947.9432284274</v>
+        <v>306252.8443243816</v>
       </c>
       <c r="AF3" t="n">
         <v>2.054587964116915e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.41536458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>208002.0342607379</v>
+        <v>277024.5026907198</v>
       </c>
     </row>
     <row r="4">
@@ -32678,28 +32678,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.4935873987051</v>
+        <v>221.2620720969137</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.4356273405988</v>
+        <v>302.7405284365529</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.8249288716762</v>
+        <v>273.8473973016582</v>
       </c>
       <c r="AD4" t="n">
-        <v>165493.5873987051</v>
+        <v>221262.0720969137</v>
       </c>
       <c r="AE4" t="n">
-        <v>226435.6273405988</v>
+        <v>302740.528436553</v>
       </c>
       <c r="AF4" t="n">
         <v>2.087107806414004e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>204824.9288716762</v>
+        <v>273847.3973016582</v>
       </c>
     </row>
     <row r="5">
@@ -32784,28 +32784,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.8014765100807</v>
+        <v>221.5699612082894</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.8568948058918</v>
+        <v>303.1617959018459</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.2059911613343</v>
+        <v>274.2284595913163</v>
       </c>
       <c r="AD5" t="n">
-        <v>165801.4765100807</v>
+        <v>221569.9612082894</v>
       </c>
       <c r="AE5" t="n">
-        <v>226856.8948058918</v>
+        <v>303161.795901846</v>
       </c>
       <c r="AF5" t="n">
         <v>2.087538792275772e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>205205.9911613343</v>
+        <v>274228.4595913163</v>
       </c>
     </row>
   </sheetData>
@@ -33081,28 +33081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.308696643729</v>
+        <v>218.0985393902699</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.1319663670936</v>
+        <v>298.4120434221122</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.9818278226544</v>
+        <v>269.9320168219273</v>
       </c>
       <c r="AD2" t="n">
-        <v>154308.696643729</v>
+        <v>218098.5393902699</v>
       </c>
       <c r="AE2" t="n">
-        <v>211131.9663670936</v>
+        <v>298412.0434221122</v>
       </c>
       <c r="AF2" t="n">
         <v>2.617161870128809e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>190981.8278226544</v>
+        <v>269932.0168219273</v>
       </c>
     </row>
     <row r="3">
@@ -33187,28 +33187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.5756963644639</v>
+        <v>218.3655391110049</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.4972871641994</v>
+        <v>298.777364219218</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.3122829156154</v>
+        <v>270.2624719148884</v>
       </c>
       <c r="AD3" t="n">
-        <v>154575.6963644639</v>
+        <v>218365.5391110049</v>
       </c>
       <c r="AE3" t="n">
-        <v>211497.2871641994</v>
+        <v>298777.364219218</v>
       </c>
       <c r="AF3" t="n">
         <v>2.622602955097892e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.86458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191312.2829156154</v>
+        <v>270262.4719148884</v>
       </c>
     </row>
   </sheetData>
@@ -33484,28 +33484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.3001728159876</v>
+        <v>452.5045247381596</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.5056153010789</v>
+        <v>619.136653837458</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.9787635951715</v>
+        <v>560.0471205589616</v>
       </c>
       <c r="AD2" t="n">
-        <v>356300.1728159876</v>
+        <v>452504.5247381596</v>
       </c>
       <c r="AE2" t="n">
-        <v>487505.6153010789</v>
+        <v>619136.653837458</v>
       </c>
       <c r="AF2" t="n">
         <v>9.198279491028273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.70052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>440978.7635951715</v>
+        <v>560047.1205589616</v>
       </c>
     </row>
     <row r="3">
@@ -33590,28 +33590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.8048010875827</v>
+        <v>317.7341172065424</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.4797524059274</v>
+        <v>434.7378366019422</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.0346672641405</v>
+        <v>393.2470676350379</v>
       </c>
       <c r="AD3" t="n">
-        <v>240804.8010875827</v>
+        <v>317734.1172065424</v>
       </c>
       <c r="AE3" t="n">
-        <v>329479.7524059274</v>
+        <v>434737.8366019422</v>
       </c>
       <c r="AF3" t="n">
         <v>1.238769563196136e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.62890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>298034.6672641405</v>
+        <v>393247.0676350379</v>
       </c>
     </row>
     <row r="4">
@@ -33696,28 +33696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.494830158155</v>
+        <v>283.7363912771928</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.2177777000757</v>
+        <v>388.2206481115939</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.9471687407299</v>
+        <v>351.1694143269244</v>
       </c>
       <c r="AD4" t="n">
-        <v>216494.830158155</v>
+        <v>283736.3912771928</v>
       </c>
       <c r="AE4" t="n">
-        <v>296217.7777000756</v>
+        <v>388220.6481115939</v>
       </c>
       <c r="AF4" t="n">
         <v>1.35404731688038e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>267947.1687407299</v>
+        <v>351169.4143269244</v>
       </c>
     </row>
     <row r="5">
@@ -33802,28 +33802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.9815575152388</v>
+        <v>268.2904384419808</v>
       </c>
       <c r="AB5" t="n">
-        <v>274.9918336727616</v>
+        <v>367.0868140151103</v>
       </c>
       <c r="AC5" t="n">
-        <v>248.7469990205764</v>
+        <v>332.0525636950868</v>
       </c>
       <c r="AD5" t="n">
-        <v>200981.5575152388</v>
+        <v>268290.4384419807</v>
       </c>
       <c r="AE5" t="n">
-        <v>274991.8336727616</v>
+        <v>367086.8140151104</v>
       </c>
       <c r="AF5" t="n">
         <v>1.404239490242537e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.90364583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>248746.9990205764</v>
+        <v>332052.5636950868</v>
       </c>
     </row>
     <row r="6">
@@ -33908,28 +33908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>196.0718590524219</v>
+        <v>253.828635624505</v>
       </c>
       <c r="AB6" t="n">
-        <v>268.2741676353296</v>
+        <v>347.2995373903642</v>
       </c>
       <c r="AC6" t="n">
-        <v>242.6704576014513</v>
+        <v>314.1537569798937</v>
       </c>
       <c r="AD6" t="n">
-        <v>196071.8590524219</v>
+        <v>253828.635624505</v>
       </c>
       <c r="AE6" t="n">
-        <v>268274.1676353296</v>
+        <v>347299.5373903642</v>
       </c>
       <c r="AF6" t="n">
         <v>1.445328590565634e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.5390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>242670.4576014513</v>
+        <v>314153.7569798937</v>
       </c>
     </row>
     <row r="7">
@@ -34014,28 +34014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>192.59585726962</v>
+        <v>250.2511486152179</v>
       </c>
       <c r="AB7" t="n">
-        <v>263.5181486457267</v>
+        <v>342.4046618366722</v>
       </c>
       <c r="AC7" t="n">
-        <v>238.3683463891</v>
+        <v>309.7260414790434</v>
       </c>
       <c r="AD7" t="n">
-        <v>192595.85726962</v>
+        <v>250251.1486152179</v>
       </c>
       <c r="AE7" t="n">
-        <v>263518.1486457267</v>
+        <v>342404.6618366722</v>
       </c>
       <c r="AF7" t="n">
         <v>1.472192399381209e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.31119791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>238368.3463891</v>
+        <v>309726.0414790434</v>
       </c>
     </row>
     <row r="8">
@@ -34120,28 +34120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>190.1802658901437</v>
+        <v>247.8355572357417</v>
       </c>
       <c r="AB8" t="n">
-        <v>260.2130299519585</v>
+        <v>339.0995431429039</v>
       </c>
       <c r="AC8" t="n">
-        <v>235.3786635847008</v>
+        <v>306.7363586746441</v>
       </c>
       <c r="AD8" t="n">
-        <v>190180.2658901437</v>
+        <v>247835.5572357417</v>
       </c>
       <c r="AE8" t="n">
-        <v>260213.0299519585</v>
+        <v>339099.5431429039</v>
       </c>
       <c r="AF8" t="n">
         <v>1.485109298127766e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.20052083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>235378.6635847008</v>
+        <v>306736.3586746441</v>
       </c>
     </row>
     <row r="9">
@@ -34226,28 +34226,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>187.3037639697286</v>
+        <v>244.9590553153265</v>
       </c>
       <c r="AB9" t="n">
-        <v>256.2772731221401</v>
+        <v>335.1637863130856</v>
       </c>
       <c r="AC9" t="n">
-        <v>231.8185298628496</v>
+        <v>303.176224952793</v>
       </c>
       <c r="AD9" t="n">
-        <v>187303.7639697286</v>
+        <v>244959.0553153266</v>
       </c>
       <c r="AE9" t="n">
-        <v>256277.2731221401</v>
+        <v>335163.7863130855</v>
       </c>
       <c r="AF9" t="n">
         <v>1.503037062767383e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>231818.5298628496</v>
+        <v>303176.224952793</v>
       </c>
     </row>
     <row r="10">
@@ -34332,28 +34332,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>176.0838576049222</v>
+        <v>243.3585731128801</v>
       </c>
       <c r="AB10" t="n">
-        <v>240.9257022464854</v>
+        <v>332.9739359554079</v>
       </c>
       <c r="AC10" t="n">
-        <v>217.9320913654975</v>
+        <v>301.1953708397771</v>
       </c>
       <c r="AD10" t="n">
-        <v>176083.8576049222</v>
+        <v>243358.5731128801</v>
       </c>
       <c r="AE10" t="n">
-        <v>240925.7022464854</v>
+        <v>332973.9359554079</v>
       </c>
       <c r="AF10" t="n">
         <v>1.513671233718211e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.97265625</v>
       </c>
       <c r="AH10" t="n">
-        <v>217932.0913654974</v>
+        <v>301195.3708397771</v>
       </c>
     </row>
     <row r="11">
@@ -34438,28 +34438,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>176.3777448980773</v>
+        <v>243.6524604060351</v>
       </c>
       <c r="AB11" t="n">
-        <v>241.3278118063722</v>
+        <v>333.3760455152947</v>
       </c>
       <c r="AC11" t="n">
-        <v>218.2958241533532</v>
+        <v>301.5591036276328</v>
       </c>
       <c r="AD11" t="n">
-        <v>176377.7448980773</v>
+        <v>243652.4604060351</v>
       </c>
       <c r="AE11" t="n">
-        <v>241327.8118063723</v>
+        <v>333376.0455152947</v>
       </c>
       <c r="AF11" t="n">
         <v>1.512808251258851e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>218295.8241533532</v>
+        <v>301559.1036276328</v>
       </c>
     </row>
   </sheetData>
@@ -34735,28 +34735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>472.9044130383564</v>
+        <v>589.6388733273903</v>
       </c>
       <c r="AB2" t="n">
-        <v>647.0486809893418</v>
+        <v>806.7699195177199</v>
       </c>
       <c r="AC2" t="n">
-        <v>585.2952630142457</v>
+        <v>729.7729307076415</v>
       </c>
       <c r="AD2" t="n">
-        <v>472904.4130383565</v>
+        <v>589638.8733273903</v>
       </c>
       <c r="AE2" t="n">
-        <v>647048.6809893418</v>
+        <v>806769.9195177199</v>
       </c>
       <c r="AF2" t="n">
         <v>7.071168436475577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.15755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>585295.2630142458</v>
+        <v>729772.9307076415</v>
       </c>
     </row>
     <row r="3">
@@ -34841,28 +34841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.6826211132727</v>
+        <v>355.5732514569521</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.9376126998279</v>
+        <v>486.5110094281394</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.6769001895442</v>
+        <v>440.0790815108074</v>
       </c>
       <c r="AD3" t="n">
-        <v>277682.6211132727</v>
+        <v>355573.2514569521</v>
       </c>
       <c r="AE3" t="n">
-        <v>379937.6126998279</v>
+        <v>486511.0094281394</v>
       </c>
       <c r="AF3" t="n">
         <v>1.040740361035682e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.73567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>343676.9001895442</v>
+        <v>440079.0815108074</v>
       </c>
     </row>
     <row r="4">
@@ -34947,28 +34947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.2598590731972</v>
+        <v>315.3468408162153</v>
       </c>
       <c r="AB4" t="n">
-        <v>338.3118475189006</v>
+        <v>431.4714597254954</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.0238396154577</v>
+        <v>390.2924291832904</v>
       </c>
       <c r="AD4" t="n">
-        <v>247259.8590731972</v>
+        <v>315346.8408162153</v>
       </c>
       <c r="AE4" t="n">
-        <v>338311.8475189006</v>
+        <v>431471.4597254954</v>
       </c>
       <c r="AF4" t="n">
         <v>1.158362585819431e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>306023.8396154577</v>
+        <v>390292.4291832905</v>
       </c>
     </row>
     <row r="5">
@@ -35053,28 +35053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>226.9753004599716</v>
+        <v>295.0281167842086</v>
       </c>
       <c r="AB5" t="n">
-        <v>310.5576195327315</v>
+        <v>403.6704851060643</v>
       </c>
       <c r="AC5" t="n">
-        <v>280.9184361949761</v>
+        <v>365.1447405626249</v>
       </c>
       <c r="AD5" t="n">
-        <v>226975.3004599716</v>
+        <v>295028.1167842086</v>
       </c>
       <c r="AE5" t="n">
-        <v>310557.6195327315</v>
+        <v>403670.4851060643</v>
       </c>
       <c r="AF5" t="n">
         <v>1.229398762634938e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.3203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>280918.4361949761</v>
+        <v>365144.7405626249</v>
       </c>
     </row>
     <row r="6">
@@ -35159,28 +35159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>223.4625401702622</v>
+        <v>281.8473585391009</v>
       </c>
       <c r="AB6" t="n">
-        <v>305.7513059323069</v>
+        <v>385.6359901810939</v>
       </c>
       <c r="AC6" t="n">
-        <v>276.570830418871</v>
+        <v>348.8314325217211</v>
       </c>
       <c r="AD6" t="n">
-        <v>223462.5401702622</v>
+        <v>281847.3585391009</v>
       </c>
       <c r="AE6" t="n">
-        <v>305751.3059323069</v>
+        <v>385635.9901810939</v>
       </c>
       <c r="AF6" t="n">
         <v>1.25591155667302e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.04036458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>276570.830418871</v>
+        <v>348831.4325217211</v>
       </c>
     </row>
     <row r="7">
@@ -35265,28 +35265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>209.7576938215449</v>
+        <v>277.8778299534861</v>
       </c>
       <c r="AB7" t="n">
-        <v>286.999730542852</v>
+        <v>380.2047060470141</v>
       </c>
       <c r="AC7" t="n">
-        <v>259.6088790665784</v>
+        <v>343.9185025225427</v>
       </c>
       <c r="AD7" t="n">
-        <v>209757.6938215449</v>
+        <v>277877.8299534861</v>
       </c>
       <c r="AE7" t="n">
-        <v>286999.730542852</v>
+        <v>380204.7060470141</v>
       </c>
       <c r="AF7" t="n">
         <v>1.281694871558251e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.77994791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>259608.8790665783</v>
+        <v>343918.5025225427</v>
       </c>
     </row>
     <row r="8">
@@ -35371,28 +35371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>206.6933024602357</v>
+        <v>274.8134385921769</v>
       </c>
       <c r="AB8" t="n">
-        <v>282.8068950909052</v>
+        <v>376.0118705950653</v>
       </c>
       <c r="AC8" t="n">
-        <v>255.8162019454826</v>
+        <v>340.1258254014463</v>
       </c>
       <c r="AD8" t="n">
-        <v>206693.3024602357</v>
+        <v>274813.4385921769</v>
       </c>
       <c r="AE8" t="n">
-        <v>282806.8950909053</v>
+        <v>376011.8705950653</v>
       </c>
       <c r="AF8" t="n">
         <v>1.30237183237353e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.57161458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>255816.2019454826</v>
+        <v>340125.8254014463</v>
       </c>
     </row>
     <row r="9">
@@ -35477,28 +35477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>205.5174009567302</v>
+        <v>263.9695391332731</v>
       </c>
       <c r="AB9" t="n">
-        <v>281.1979747766969</v>
+        <v>361.1747689563128</v>
       </c>
       <c r="AC9" t="n">
-        <v>254.3608347279279</v>
+        <v>326.7047559190934</v>
       </c>
       <c r="AD9" t="n">
-        <v>205517.4009567302</v>
+        <v>263969.5391332731</v>
       </c>
       <c r="AE9" t="n">
-        <v>281197.9747766969</v>
+        <v>361174.7689563128</v>
       </c>
       <c r="AF9" t="n">
         <v>1.307805194339588e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.51953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>254360.8347279279</v>
+        <v>326704.7559190934</v>
       </c>
     </row>
     <row r="10">
@@ -35583,28 +35583,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>202.4478091817018</v>
+        <v>260.7984621317594</v>
       </c>
       <c r="AB10" t="n">
-        <v>276.9980238892735</v>
+        <v>356.8359615047979</v>
       </c>
       <c r="AC10" t="n">
-        <v>250.5617212585308</v>
+        <v>322.7800381611966</v>
       </c>
       <c r="AD10" t="n">
-        <v>202447.8091817018</v>
+        <v>260798.4621317594</v>
       </c>
       <c r="AE10" t="n">
-        <v>276998.0238892735</v>
+        <v>356835.9615047979</v>
       </c>
       <c r="AF10" t="n">
         <v>1.325664856357651e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.35677083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>250561.7212585307</v>
+        <v>322780.0381611966</v>
       </c>
     </row>
     <row r="11">
@@ -35689,28 +35689,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>200.2772530441463</v>
+        <v>258.627905994204</v>
       </c>
       <c r="AB11" t="n">
-        <v>274.0281732236932</v>
+        <v>353.866110839216</v>
       </c>
       <c r="AC11" t="n">
-        <v>247.8753089722608</v>
+        <v>320.0936258749263</v>
       </c>
       <c r="AD11" t="n">
-        <v>200277.2530441463</v>
+        <v>258627.9059942039</v>
       </c>
       <c r="AE11" t="n">
-        <v>274028.1732236932</v>
+        <v>353866.110839216</v>
       </c>
       <c r="AF11" t="n">
         <v>1.337286213896166e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.24609375</v>
       </c>
       <c r="AH11" t="n">
-        <v>247875.3089722608</v>
+        <v>320093.6258749263</v>
       </c>
     </row>
     <row r="12">
@@ -35795,28 +35795,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>198.4839221029656</v>
+        <v>256.83457505302</v>
       </c>
       <c r="AB12" t="n">
-        <v>271.5744587137935</v>
+        <v>351.4123963291446</v>
       </c>
       <c r="AC12" t="n">
-        <v>245.6557735313753</v>
+        <v>317.8740904339919</v>
       </c>
       <c r="AD12" t="n">
-        <v>198483.9221029656</v>
+        <v>256834.57505302</v>
       </c>
       <c r="AE12" t="n">
-        <v>271574.4587137935</v>
+        <v>351412.3963291446</v>
       </c>
       <c r="AF12" t="n">
         <v>1.344681623238856e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.18098958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>245655.7735313753</v>
+        <v>317874.0904339919</v>
       </c>
     </row>
     <row r="13">
@@ -35901,28 +35901,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>196.7816836157753</v>
+        <v>255.1323365658297</v>
       </c>
       <c r="AB13" t="n">
-        <v>269.245380918159</v>
+        <v>349.08331853351</v>
       </c>
       <c r="AC13" t="n">
-        <v>243.5489796516742</v>
+        <v>315.7672965542907</v>
       </c>
       <c r="AD13" t="n">
-        <v>196781.6836157753</v>
+        <v>255132.3365658297</v>
       </c>
       <c r="AE13" t="n">
-        <v>269245.380918159</v>
+        <v>349083.31853351</v>
       </c>
       <c r="AF13" t="n">
         <v>1.35212734148864e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH13" t="n">
-        <v>243548.9796516742</v>
+        <v>315767.2965542907</v>
       </c>
     </row>
     <row r="14">
@@ -36007,28 +36007,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>195.2310301202832</v>
+        <v>253.5816830703375</v>
       </c>
       <c r="AB14" t="n">
-        <v>267.1237083956236</v>
+        <v>346.9616460109747</v>
       </c>
       <c r="AC14" t="n">
-        <v>241.6297965769028</v>
+        <v>313.8481134795194</v>
       </c>
       <c r="AD14" t="n">
-        <v>195231.0301202832</v>
+        <v>253581.6830703375</v>
       </c>
       <c r="AE14" t="n">
-        <v>267123.7083956236</v>
+        <v>346961.6460109747</v>
       </c>
       <c r="AF14" t="n">
         <v>1.358315337061096e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>241629.7965769028</v>
+        <v>313848.1134795194</v>
       </c>
     </row>
     <row r="15">
@@ -36113,28 +36113,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>195.8131690205502</v>
+        <v>254.1638219706046</v>
       </c>
       <c r="AB15" t="n">
-        <v>267.9202165211244</v>
+        <v>347.7581541364754</v>
       </c>
       <c r="AC15" t="n">
-        <v>242.3502870848122</v>
+        <v>314.5686039874287</v>
       </c>
       <c r="AD15" t="n">
-        <v>195813.1690205502</v>
+        <v>254163.8219706046</v>
       </c>
       <c r="AE15" t="n">
-        <v>267920.2165211244</v>
+        <v>347758.1541364754</v>
       </c>
       <c r="AF15" t="n">
         <v>1.355799891706439e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.07682291666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>242350.2870848122</v>
+        <v>314568.6039874287</v>
       </c>
     </row>
   </sheetData>
@@ -36410,28 +36410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.7228216446341</v>
+        <v>221.9305071487933</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.1715669307801</v>
+        <v>303.6551107638075</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.4450173851772</v>
+        <v>274.674693175224</v>
       </c>
       <c r="AD2" t="n">
-        <v>158722.8216446341</v>
+        <v>221930.5071487933</v>
       </c>
       <c r="AE2" t="n">
-        <v>217171.5669307801</v>
+        <v>303655.1107638075</v>
       </c>
       <c r="AF2" t="n">
         <v>2.896915800709049e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.71744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>196445.0173851772</v>
+        <v>274674.6931752241</v>
       </c>
     </row>
   </sheetData>
@@ -36707,28 +36707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.9897979804455</v>
+        <v>333.4673410568605</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.9930233032861</v>
+        <v>456.2647275747967</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.3038645881457</v>
+        <v>412.7194623466243</v>
       </c>
       <c r="AD2" t="n">
-        <v>257989.7979804455</v>
+        <v>333467.3410568605</v>
       </c>
       <c r="AE2" t="n">
-        <v>352993.0233032861</v>
+        <v>456264.7275747966</v>
       </c>
       <c r="AF2" t="n">
         <v>1.332592895928625e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.25651041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>319303.8645881457</v>
+        <v>412719.4623466243</v>
       </c>
     </row>
     <row r="3">
@@ -36813,28 +36813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.7220754983292</v>
+        <v>264.7223452954481</v>
       </c>
       <c r="AB3" t="n">
-        <v>271.9003106959161</v>
+        <v>362.2047915588645</v>
       </c>
       <c r="AC3" t="n">
-        <v>245.9505266576603</v>
+        <v>327.6364746101034</v>
       </c>
       <c r="AD3" t="n">
-        <v>198722.0754983292</v>
+        <v>264722.3452954481</v>
       </c>
       <c r="AE3" t="n">
-        <v>271900.3106959161</v>
+        <v>362204.7915588645</v>
       </c>
       <c r="AF3" t="n">
         <v>1.627989034312104e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>245950.5266576603</v>
+        <v>327636.4746101035</v>
       </c>
     </row>
     <row r="4">
@@ -36919,28 +36919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.6356572618568</v>
+        <v>247.7032468666768</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.5219194652141</v>
+        <v>338.918510258828</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.803336274231</v>
+        <v>306.572603314943</v>
       </c>
       <c r="AD4" t="n">
-        <v>181635.6572618568</v>
+        <v>247703.2468666768</v>
       </c>
       <c r="AE4" t="n">
-        <v>248521.9194652141</v>
+        <v>338918.5102588279</v>
       </c>
       <c r="AF4" t="n">
         <v>1.715187286221452e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.63020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>224803.336274231</v>
+        <v>306572.603314943</v>
       </c>
     </row>
     <row r="5">
@@ -37025,28 +37025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>175.8368940540851</v>
+        <v>232.4282214094671</v>
       </c>
       <c r="AB5" t="n">
-        <v>240.5877958209672</v>
+        <v>318.0185465417214</v>
       </c>
       <c r="AC5" t="n">
-        <v>217.626434254976</v>
+        <v>287.6673028017073</v>
       </c>
       <c r="AD5" t="n">
-        <v>175836.8940540851</v>
+        <v>232428.221409467</v>
       </c>
       <c r="AE5" t="n">
-        <v>240587.7958209672</v>
+        <v>318018.5465417214</v>
       </c>
       <c r="AF5" t="n">
         <v>1.778465071468144e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.18098958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>217626.434254976</v>
+        <v>287667.3028017073</v>
       </c>
     </row>
     <row r="6">
@@ -37131,28 +37131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>173.8299029346069</v>
+        <v>230.4212302899889</v>
       </c>
       <c r="AB6" t="n">
-        <v>237.8417420290994</v>
+        <v>315.2724927498537</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.1424599828924</v>
+        <v>285.1833285296237</v>
       </c>
       <c r="AD6" t="n">
-        <v>173829.9029346069</v>
+        <v>230421.2302899889</v>
       </c>
       <c r="AE6" t="n">
-        <v>237841.7420290994</v>
+        <v>315272.4927498536</v>
       </c>
       <c r="AF6" t="n">
         <v>1.801021505956712e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>215142.4599828924</v>
+        <v>285183.3285296237</v>
       </c>
     </row>
     <row r="7">
@@ -37237,28 +37237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>174.2345285764951</v>
+        <v>230.825855931877</v>
       </c>
       <c r="AB7" t="n">
-        <v>238.3953686831539</v>
+        <v>315.8261194039081</v>
       </c>
       <c r="AC7" t="n">
-        <v>215.6432492861041</v>
+        <v>285.6841178328353</v>
       </c>
       <c r="AD7" t="n">
-        <v>174234.528576495</v>
+        <v>230825.855931877</v>
       </c>
       <c r="AE7" t="n">
-        <v>238395.3686831539</v>
+        <v>315826.1194039081</v>
       </c>
       <c r="AF7" t="n">
         <v>1.798925554079456e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.03776041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>215643.2492861041</v>
+        <v>285684.1178328354</v>
       </c>
     </row>
   </sheetData>
@@ -37534,28 +37534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.1849315579043</v>
+        <v>402.1121432922996</v>
       </c>
       <c r="AB2" t="n">
-        <v>432.6181724522284</v>
+        <v>550.1875743882656</v>
       </c>
       <c r="AC2" t="n">
-        <v>391.3297012568054</v>
+        <v>497.6784444817594</v>
       </c>
       <c r="AD2" t="n">
-        <v>316184.9315579043</v>
+        <v>402112.1432922996</v>
       </c>
       <c r="AE2" t="n">
-        <v>432618.1724522284</v>
+        <v>550187.5743882656</v>
       </c>
       <c r="AF2" t="n">
         <v>1.057667544735032e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.23567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>391329.7012568054</v>
+        <v>497678.4444817593</v>
       </c>
     </row>
     <row r="3">
@@ -37640,28 +37640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.302982639142</v>
+        <v>294.1202984752957</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.0059687465897</v>
+        <v>402.4283680456924</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.3239955891258</v>
+        <v>364.0211694111727</v>
       </c>
       <c r="AD3" t="n">
-        <v>227302.982639142</v>
+        <v>294120.2984752957</v>
       </c>
       <c r="AE3" t="n">
-        <v>311005.9687465897</v>
+        <v>402428.3680456924</v>
       </c>
       <c r="AF3" t="n">
         <v>1.372156485577737e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.05598958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>281323.9955891258</v>
+        <v>364021.1694111727</v>
       </c>
     </row>
     <row r="4">
@@ -37746,28 +37746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>205.8702173579915</v>
+        <v>263.1667506638036</v>
       </c>
       <c r="AB4" t="n">
-        <v>281.6807137420636</v>
+        <v>360.0763583558568</v>
       </c>
       <c r="AC4" t="n">
-        <v>254.7975017639684</v>
+        <v>325.7111760847161</v>
       </c>
       <c r="AD4" t="n">
-        <v>205870.2173579916</v>
+        <v>263166.7506638036</v>
       </c>
       <c r="AE4" t="n">
-        <v>281680.7137420636</v>
+        <v>360076.3583558568</v>
       </c>
       <c r="AF4" t="n">
         <v>1.483631794958963e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.00130208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>254797.5017639684</v>
+        <v>325711.1760847161</v>
       </c>
     </row>
     <row r="5">
@@ -37852,28 +37852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.2181494056306</v>
+        <v>258.0686196307075</v>
       </c>
       <c r="AB5" t="n">
-        <v>261.6331079660361</v>
+        <v>353.1008705627072</v>
       </c>
       <c r="AC5" t="n">
-        <v>236.6632113462073</v>
+        <v>319.401419056386</v>
       </c>
       <c r="AD5" t="n">
-        <v>191218.1494056307</v>
+        <v>258068.6196307075</v>
       </c>
       <c r="AE5" t="n">
-        <v>261633.1079660361</v>
+        <v>353100.8705627072</v>
       </c>
       <c r="AF5" t="n">
         <v>1.529341707894183e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.61067708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>236663.2113462073</v>
+        <v>319401.419056386</v>
       </c>
     </row>
     <row r="6">
@@ -37958,28 +37958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>186.7162811073824</v>
+        <v>243.9786489944103</v>
       </c>
       <c r="AB6" t="n">
-        <v>255.4734531519637</v>
+        <v>333.8223511323344</v>
       </c>
       <c r="AC6" t="n">
-        <v>231.0914253424582</v>
+        <v>301.9628144629762</v>
       </c>
       <c r="AD6" t="n">
-        <v>186716.2811073824</v>
+        <v>243978.6489944103</v>
       </c>
       <c r="AE6" t="n">
-        <v>255473.4531519637</v>
+        <v>333822.3511323344</v>
       </c>
       <c r="AF6" t="n">
         <v>1.569660043282929e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.28515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>231091.4253424582</v>
+        <v>301962.8144629762</v>
       </c>
     </row>
     <row r="7">
@@ -38064,28 +38064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>184.0497219896407</v>
+        <v>241.3120898766687</v>
       </c>
       <c r="AB7" t="n">
-        <v>251.8249493267858</v>
+        <v>330.1738473071564</v>
       </c>
       <c r="AC7" t="n">
-        <v>227.7911296016468</v>
+        <v>298.6625187221648</v>
       </c>
       <c r="AD7" t="n">
-        <v>184049.7219896407</v>
+        <v>241312.0898766687</v>
       </c>
       <c r="AE7" t="n">
-        <v>251824.9493267858</v>
+        <v>330173.8473071564</v>
       </c>
       <c r="AF7" t="n">
         <v>1.585183046768382e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.16796875</v>
       </c>
       <c r="AH7" t="n">
-        <v>227791.1296016468</v>
+        <v>298662.5187221648</v>
       </c>
     </row>
     <row r="8">
@@ -38170,28 +38170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>181.7357258536198</v>
+        <v>238.9980937406476</v>
       </c>
       <c r="AB8" t="n">
-        <v>248.6588377271788</v>
+        <v>327.0077357075495</v>
       </c>
       <c r="AC8" t="n">
-        <v>224.9271872494398</v>
+        <v>295.7985763699577</v>
       </c>
       <c r="AD8" t="n">
-        <v>181735.7258536197</v>
+        <v>238998.0937406477</v>
       </c>
       <c r="AE8" t="n">
-        <v>248658.8377271788</v>
+        <v>327007.7357075495</v>
       </c>
       <c r="AF8" t="n">
         <v>1.603964696023683e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>224927.1872494398</v>
+        <v>295798.5763699578</v>
       </c>
     </row>
     <row r="9">
@@ -38276,28 +38276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>181.747465045764</v>
+        <v>239.0098329327919</v>
       </c>
       <c r="AB9" t="n">
-        <v>248.6748998077672</v>
+        <v>327.0237977881378</v>
       </c>
       <c r="AC9" t="n">
-        <v>224.9417163876001</v>
+        <v>295.813105508118</v>
       </c>
       <c r="AD9" t="n">
-        <v>181747.465045764</v>
+        <v>239009.8329327919</v>
       </c>
       <c r="AE9" t="n">
-        <v>248674.8998077672</v>
+        <v>327023.7977881378</v>
       </c>
       <c r="AF9" t="n">
         <v>1.602631613663291e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH9" t="n">
-        <v>224941.7163876001</v>
+        <v>295813.1055081181</v>
       </c>
     </row>
   </sheetData>
